--- a/wbs_template.xlsx
+++ b/wbs_template.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="gmvjKK96jZTRYnIYD6CWmwGQHT/mfFyiyym62jfHdto="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="rQTKgxHi4wGfg4SOswqBDNE9xQNtub5k5LoKR1jxgHk="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="350">
   <si>
     <t># V</t>
   </si>
@@ -30,7 +30,7 @@
     <t>FmtRev = 2.1</t>
   </si>
   <si>
-    <t>RunTime = 20251027-125014</t>
+    <t>RunTime = 20250905-115816</t>
   </si>
   <si>
     <t>CliUnqId = 055269</t>
@@ -42,13 +42,13 @@
     <t>Freq = W</t>
   </si>
   <si>
-    <t>PEDate = 10/26/2025</t>
-  </si>
-  <si>
-    <t>RptDate = 10/29/2025</t>
-  </si>
-  <si>
-    <t>CkDate = 10/31/2025</t>
+    <t>PEDate = 09/07/2025</t>
+  </si>
+  <si>
+    <t>RptDate = 09/10/2025</t>
+  </si>
+  <si>
+    <t>CkDate = 09/12/2025</t>
   </si>
   <si>
     <t>EmpType = SSN</t>
@@ -99,7 +99,7 @@
     <t>Period End</t>
   </si>
   <si>
-    <t>10/26/2025</t>
+    <t>09/07/2025</t>
   </si>
   <si>
     <t># R</t>
@@ -108,7 +108,7 @@
     <t>Report Due</t>
   </si>
   <si>
-    <t>10/29/2025</t>
+    <t>09/10/2025</t>
   </si>
   <si>
     <t># C</t>
@@ -117,166 +117,181 @@
     <t>Check Date</t>
   </si>
   <si>
-    <t>10/31/2025</t>
-  </si>
-  <si>
-    <t># T</t>
-  </si>
-  <si>
-    <t>EmployeeID</t>
+    <t>09/12/2025</t>
+  </si>
+  <si>
+    <t># B:8</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pay</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
+  </si>
+  <si>
+    <t>OVERTIME</t>
+  </si>
+  <si>
+    <t>DOUBLETIME</t>
+  </si>
+  <si>
+    <t>VACATION</t>
+  </si>
+  <si>
+    <t>SICK</t>
+  </si>
+  <si>
+    <t>HOLIDAY</t>
+  </si>
+  <si>
+    <t>BONUS</t>
+  </si>
+  <si>
+    <t>COMMISSION</t>
+  </si>
+  <si>
+    <t>PC HRS MON</t>
+  </si>
+  <si>
+    <t>PC TTL MON</t>
+  </si>
+  <si>
+    <t>PC HRS TUE</t>
+  </si>
+  <si>
+    <t>PC TTL TUE</t>
+  </si>
+  <si>
+    <t>PC HRS WED</t>
+  </si>
+  <si>
+    <t>PC TTL WED</t>
+  </si>
+  <si>
+    <t>PC HRS THU</t>
+  </si>
+  <si>
+    <t>PC TTL THU</t>
+  </si>
+  <si>
+    <t>PC HRS FRI</t>
+  </si>
+  <si>
+    <t>PC TTL FRI</t>
+  </si>
+  <si>
+    <t>TRAVEL AMOUNT</t>
+  </si>
+  <si>
+    <t>Notes and</t>
+  </si>
+  <si>
+    <t># E:26</t>
   </si>
   <si>
     <t>SSN</t>
   </si>
   <si>
-    <t># B:8</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Pay</t>
-  </si>
-  <si>
-    <t>REGULAR</t>
-  </si>
-  <si>
-    <t>OVERTIME</t>
-  </si>
-  <si>
-    <t>DOUBLETIME</t>
-  </si>
-  <si>
-    <t>VACATION</t>
-  </si>
-  <si>
-    <t>SICK</t>
-  </si>
-  <si>
-    <t>HOLIDAY</t>
-  </si>
-  <si>
-    <t>BONUS</t>
-  </si>
-  <si>
-    <t>COMMISSION</t>
-  </si>
-  <si>
-    <t>PC HRS MON</t>
-  </si>
-  <si>
-    <t>PC TTL MON</t>
-  </si>
-  <si>
-    <t>PC HRS TUE</t>
-  </si>
-  <si>
-    <t>PC TTL TUE</t>
-  </si>
-  <si>
-    <t>PC HRS WED</t>
-  </si>
-  <si>
-    <t>PC TTL WED</t>
-  </si>
-  <si>
-    <t>PC HRS THU</t>
-  </si>
-  <si>
-    <t>PC TTL THU</t>
-  </si>
-  <si>
-    <t>PC HRS FRI</t>
-  </si>
-  <si>
-    <t>PC TTL FRI</t>
-  </si>
-  <si>
-    <t>TRAVEL AMOUNT</t>
-  </si>
-  <si>
-    <t>Notes and</t>
+    <t>Employee Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Pay Rate</t>
+  </si>
+  <si>
+    <t>Dept</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>AH1</t>
+  </si>
+  <si>
+    <t>AI1</t>
+  </si>
+  <si>
+    <t>AH2</t>
+  </si>
+  <si>
+    <t>AI2</t>
+  </si>
+  <si>
+    <t>AH3</t>
+  </si>
+  <si>
+    <t>AI3</t>
+  </si>
+  <si>
+    <t>AH4</t>
+  </si>
+  <si>
+    <t>AI4</t>
+  </si>
+  <si>
+    <t>AH5</t>
+  </si>
+  <si>
+    <t>AI5</t>
+  </si>
+  <si>
+    <t>ATE</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
   <si>
     <t>Totals</t>
   </si>
   <si>
-    <t># E:26</t>
-  </si>
-  <si>
-    <t>Employee Name</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Pay Rate</t>
-  </si>
-  <si>
-    <t>Dept</t>
-  </si>
-  <si>
-    <t>A01</t>
-  </si>
-  <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>A03</t>
-  </si>
-  <si>
-    <t>A06</t>
-  </si>
-  <si>
-    <t>A07</t>
-  </si>
-  <si>
-    <t>A08</t>
-  </si>
-  <si>
-    <t>A04</t>
-  </si>
-  <si>
-    <t>A05</t>
-  </si>
-  <si>
-    <t>AH1</t>
-  </si>
-  <si>
-    <t>AI1</t>
-  </si>
-  <si>
-    <t>AH2</t>
-  </si>
-  <si>
-    <t>AI2</t>
-  </si>
-  <si>
-    <t>AH3</t>
-  </si>
-  <si>
-    <t>AI3</t>
-  </si>
-  <si>
-    <t>AH4</t>
-  </si>
-  <si>
-    <t>AI4</t>
-  </si>
-  <si>
-    <t>AH5</t>
-  </si>
-  <si>
-    <t>AI5</t>
-  </si>
-  <si>
-    <t>ATE</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>0000662082</t>
+  </si>
+  <si>
+    <t>626946016</t>
+  </si>
+  <si>
+    <t>Robleza, Dianne</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
   </si>
   <si>
     <t>0000659098</t>
@@ -285,10 +300,7 @@
     <t>622809130</t>
   </si>
   <si>
-    <t>Aranda, Emily</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>Shafer, Emily</t>
   </si>
   <si>
     <t>S</t>
@@ -297,81 +309,54 @@
     <t>1634.62</t>
   </si>
   <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
-    <t>0000703424</t>
-  </si>
-  <si>
-    <t>548977447</t>
-  </si>
-  <si>
-    <t>Fox, Blair</t>
-  </si>
-  <si>
-    <t>H</t>
+    <t>0000694868</t>
+  </si>
+  <si>
+    <t>616259695</t>
+  </si>
+  <si>
+    <t>Stokes, Symone</t>
+  </si>
+  <si>
+    <t>0000658972</t>
+  </si>
+  <si>
+    <t>602762103</t>
+  </si>
+  <si>
+    <t>Young, Giana L</t>
+  </si>
+  <si>
+    <t>1538.47</t>
+  </si>
+  <si>
+    <t>0000659075</t>
+  </si>
+  <si>
+    <t>616259654</t>
+  </si>
+  <si>
+    <t>Garcia, Bryan</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>GUTTR</t>
+  </si>
+  <si>
+    <t>0000659112</t>
+  </si>
+  <si>
+    <t>681068099</t>
+  </si>
+  <si>
+    <t>Garcia, Miguel A</t>
   </si>
   <si>
     <t>40.00</t>
   </si>
   <si>
-    <t>0000662082</t>
-  </si>
-  <si>
-    <t>626946016</t>
-  </si>
-  <si>
-    <t>Robleza, Dianne</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>0000694868</t>
-  </si>
-  <si>
-    <t>616259695</t>
-  </si>
-  <si>
-    <t>Stokes, Symone</t>
-  </si>
-  <si>
-    <t>0000658972</t>
-  </si>
-  <si>
-    <t>602762103</t>
-  </si>
-  <si>
-    <t>Young, Giana L</t>
-  </si>
-  <si>
-    <t>1538.47</t>
-  </si>
-  <si>
-    <t>0000659075</t>
-  </si>
-  <si>
-    <t>616259654</t>
-  </si>
-  <si>
-    <t>Garcia, Bryan</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>GUTTR</t>
-  </si>
-  <si>
-    <t>0000659112</t>
-  </si>
-  <si>
-    <t>681068099</t>
-  </si>
-  <si>
-    <t>Garcia, Miguel A</t>
-  </si>
-  <si>
     <t>0000702974</t>
   </si>
   <si>
@@ -390,6 +375,9 @@
     <t>Pacheco Estrada, Jesus</t>
   </si>
   <si>
+    <t>$500 Payback of Advance</t>
+  </si>
+  <si>
     <t>0000676086</t>
   </si>
   <si>
@@ -411,63 +399,66 @@
     <t>Rivas Beltran, Angel M</t>
   </si>
   <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>0000676689</t>
+  </si>
+  <si>
+    <t>836220003</t>
+  </si>
+  <si>
+    <t>Romero Solis, Juan</t>
+  </si>
+  <si>
+    <t>0000659096</t>
+  </si>
+  <si>
+    <t>432946242</t>
+  </si>
+  <si>
+    <t>Alcaraz, Luis</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>ROOF</t>
+  </si>
+  <si>
+    <t>0000662584</t>
+  </si>
+  <si>
+    <t>534908967</t>
+  </si>
+  <si>
+    <t>Alvarez, Jose</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>0000659100</t>
+  </si>
+  <si>
+    <t>613871092</t>
+  </si>
+  <si>
+    <t>Arizmendi, Fernando</t>
+  </si>
+  <si>
+    <t>0000674796</t>
+  </si>
+  <si>
+    <t>364725751</t>
+  </si>
+  <si>
+    <t>Arroyo, Jose</t>
+  </si>
+  <si>
     <t>27.00</t>
   </si>
   <si>
-    <t>0000676689</t>
-  </si>
-  <si>
-    <t>836220003</t>
-  </si>
-  <si>
-    <t>Romero Solis, Juan</t>
-  </si>
-  <si>
-    <t>0000659096</t>
-  </si>
-  <si>
-    <t>432946242</t>
-  </si>
-  <si>
-    <t>Alcaraz, Luis</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>ROOF</t>
-  </si>
-  <si>
-    <t>0000662584</t>
-  </si>
-  <si>
-    <t>534908967</t>
-  </si>
-  <si>
-    <t>Alvarez, Jose</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>0000659100</t>
-  </si>
-  <si>
-    <t>613871092</t>
-  </si>
-  <si>
-    <t>Arizmendi, Fernando</t>
-  </si>
-  <si>
-    <t>0000674796</t>
-  </si>
-  <si>
-    <t>364725751</t>
-  </si>
-  <si>
-    <t>Arroyo, Jose</t>
-  </si>
-  <si>
     <t>0000662081</t>
   </si>
   <si>
@@ -489,520 +480,442 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>0000703228</t>
-  </si>
-  <si>
-    <t>264022781</t>
+    <t>0000700760</t>
+  </si>
+  <si>
+    <t>603965173</t>
+  </si>
+  <si>
+    <t>Bustos, Eric</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>0000668812</t>
+  </si>
+  <si>
+    <t>611042001</t>
+  </si>
+  <si>
+    <t>Castaneda, Andy</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>0000675652</t>
+  </si>
+  <si>
+    <t>653246578</t>
+  </si>
+  <si>
+    <t>Castillo, Moises</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>0000698157</t>
+  </si>
+  <si>
+    <t>610591002</t>
+  </si>
+  <si>
+    <t>Chavez, Derick J</t>
+  </si>
+  <si>
+    <t>0000698158</t>
+  </si>
+  <si>
+    <t>625379918</t>
+  </si>
+  <si>
+    <t>Chavez, Endhy</t>
+  </si>
+  <si>
+    <t>0000682812</t>
+  </si>
+  <si>
+    <t>137178003</t>
+  </si>
+  <si>
+    <t>Contreras, Brian</t>
+  </si>
+  <si>
+    <t>0000659113</t>
+  </si>
+  <si>
+    <t>625928562</t>
+  </si>
+  <si>
+    <t>Cuevas, Marcelo</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>0000681979</t>
+  </si>
+  <si>
+    <t>615873427</t>
+  </si>
+  <si>
+    <t>Cuevas Barragan, Carlos</t>
+  </si>
+  <si>
+    <t>0000659051</t>
+  </si>
+  <si>
+    <t>625154423</t>
+  </si>
+  <si>
+    <t>Dean, Jacob P</t>
+  </si>
+  <si>
+    <t>0000701059</t>
+  </si>
+  <si>
+    <t>658836473</t>
+  </si>
+  <si>
+    <t>Duarte, Esau</t>
+  </si>
+  <si>
+    <t>0000697052</t>
+  </si>
+  <si>
+    <t>654060734</t>
+  </si>
+  <si>
+    <t>Duarte, Kevin</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>0000659000</t>
+  </si>
+  <si>
+    <t>607794927</t>
+  </si>
+  <si>
+    <t>Espinoza, Jose Federico</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>0000659046</t>
+  </si>
+  <si>
+    <t>615292328</t>
+  </si>
+  <si>
+    <t>Esquivel, Kleber</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>0000674802</t>
+  </si>
+  <si>
+    <t>611882540</t>
+  </si>
+  <si>
+    <t>Flores, Saul Daniel L</t>
+  </si>
+  <si>
+    <t>0000659080</t>
+  </si>
+  <si>
+    <t>621364058</t>
+  </si>
+  <si>
+    <t>Garcia Garcia, Eduardo</t>
+  </si>
+  <si>
+    <t>0000668811</t>
+  </si>
+  <si>
+    <t>341127082</t>
+  </si>
+  <si>
+    <t>Gonzalez, Alejandro</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>0000668813</t>
+  </si>
+  <si>
+    <t>627736546</t>
+  </si>
+  <si>
+    <t>Gonzalez, Emanuel</t>
+  </si>
+  <si>
+    <t>0000659063</t>
+  </si>
+  <si>
+    <t>623234232</t>
+  </si>
+  <si>
+    <t>Gonzalez, Miguel</t>
+  </si>
+  <si>
+    <t>0000659040</t>
+  </si>
+  <si>
+    <t>618243648</t>
+  </si>
+  <si>
+    <t>Hernandez, Sergio</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>0000659102</t>
+  </si>
+  <si>
+    <t>655411126</t>
+  </si>
+  <si>
+    <t>Lopez, Daniel</t>
+  </si>
+  <si>
+    <t>0000701804</t>
+  </si>
+  <si>
+    <t>189351494</t>
+  </si>
+  <si>
+    <t>Lopez, Gerwin A</t>
+  </si>
+  <si>
+    <t>0000659039</t>
+  </si>
+  <si>
+    <t>635455748</t>
+  </si>
+  <si>
+    <t>Lopez, Yair A</t>
+  </si>
+  <si>
+    <t>0000659048</t>
+  </si>
+  <si>
+    <t>609226343</t>
+  </si>
+  <si>
+    <t>Lopez, Zeferino</t>
+  </si>
+  <si>
+    <t>0000659009</t>
+  </si>
+  <si>
+    <t>621101210</t>
+  </si>
+  <si>
+    <t>Martinez, Alberto</t>
+  </si>
+  <si>
+    <t>0000659030</t>
+  </si>
+  <si>
+    <t>601903561</t>
+  </si>
+  <si>
+    <t>Martinez, Emiliano B</t>
+  </si>
+  <si>
+    <t>0000659038</t>
+  </si>
+  <si>
+    <t>607333861</t>
+  </si>
+  <si>
+    <t>Martinez, Maciel</t>
+  </si>
+  <si>
+    <t>0000698156</t>
+  </si>
+  <si>
+    <t>660484575</t>
+  </si>
+  <si>
+    <t>Mateos, Daniel</t>
+  </si>
+  <si>
+    <t>0000659047</t>
+  </si>
+  <si>
+    <t>610215629</t>
+  </si>
+  <si>
+    <t>Moreno, Eduardo</t>
+  </si>
+  <si>
+    <t>0000688269</t>
+  </si>
+  <si>
+    <t>622936952</t>
+  </si>
+  <si>
+    <t>Olivares, Alberto M</t>
+  </si>
+  <si>
+    <t>0000659093</t>
+  </si>
+  <si>
+    <t>086310738</t>
+  </si>
+  <si>
+    <t>Pelagio, Miguel Angel</t>
+  </si>
+  <si>
+    <t>0000659101</t>
+  </si>
+  <si>
+    <t>797771646</t>
+  </si>
+  <si>
+    <t>Perez, Edgar</t>
+  </si>
+  <si>
+    <t>0000698658</t>
+  </si>
+  <si>
+    <t>658873980</t>
+  </si>
+  <si>
+    <t>Perez, Octavio</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>No Longer Employed</t>
+  </si>
+  <si>
+    <t>0000682814</t>
+  </si>
+  <si>
+    <t>645024748</t>
+  </si>
+  <si>
+    <t>Ramos Grana, Omar</t>
+  </si>
+  <si>
+    <t>0000699565</t>
+  </si>
+  <si>
+    <t>654991245</t>
+  </si>
+  <si>
+    <t>Rodriguez, Antoni</t>
+  </si>
+  <si>
+    <t>0000659086</t>
+  </si>
+  <si>
+    <t>634473263</t>
+  </si>
+  <si>
+    <t>Santos, Efrain</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>0000659084</t>
+  </si>
+  <si>
+    <t>603297017</t>
+  </si>
+  <si>
+    <t>Santos, Javier</t>
+  </si>
+  <si>
+    <t>0000702972</t>
+  </si>
+  <si>
+    <t>006437019</t>
+  </si>
+  <si>
+    <t>Serrano, Erick V</t>
+  </si>
+  <si>
+    <t>0000688270</t>
+  </si>
+  <si>
+    <t>658102450</t>
+  </si>
+  <si>
+    <t>Torres, Anthony</t>
+  </si>
+  <si>
+    <t>0000659090</t>
+  </si>
+  <si>
+    <t>625855596</t>
+  </si>
+  <si>
+    <t>Torrez, Jose R</t>
+  </si>
+  <si>
+    <t>0000668810</t>
+  </si>
+  <si>
+    <t>602060741</t>
+  </si>
+  <si>
+    <t>Valle, Victor</t>
+  </si>
+  <si>
+    <t>0000702061</t>
+  </si>
+  <si>
+    <t>640670356</t>
+  </si>
+  <si>
+    <t>Vargas Pineda, Karina</t>
+  </si>
+  <si>
+    <t>0000659045</t>
+  </si>
+  <si>
+    <t>628795401</t>
+  </si>
+  <si>
+    <t>Vera, Victor</t>
+  </si>
+  <si>
+    <t>Marquez, Abraham</t>
+  </si>
+  <si>
+    <t>Hernandez, Carlos</t>
+  </si>
+  <si>
+    <t>Zamora, Cesar</t>
+  </si>
+  <si>
+    <t>Hernandez, Edy</t>
   </si>
   <si>
     <t>Cardoso, Hipolito</t>
   </si>
   <si>
-    <t>0000668812</t>
-  </si>
-  <si>
-    <t>611042001</t>
-  </si>
-  <si>
-    <t>Castaneda, Andy</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>0000704286</t>
-  </si>
-  <si>
-    <t>602178082</t>
-  </si>
-  <si>
-    <t>Castanedo, Jose</t>
-  </si>
-  <si>
-    <t>0000675652</t>
-  </si>
-  <si>
-    <t>653246578</t>
-  </si>
-  <si>
-    <t>Castillo, Moises</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>0000703811</t>
-  </si>
-  <si>
-    <t>690378372</t>
-  </si>
-  <si>
-    <t>Cerda Cardoza, Jose A</t>
-  </si>
-  <si>
-    <t>0000698157</t>
-  </si>
-  <si>
-    <t>610591002</t>
-  </si>
-  <si>
-    <t>Chavez, Derick J</t>
-  </si>
-  <si>
-    <t>0000698158</t>
-  </si>
-  <si>
-    <t>625379918</t>
-  </si>
-  <si>
-    <t>Chavez, Endhy</t>
-  </si>
-  <si>
-    <t>0000682812</t>
-  </si>
-  <si>
-    <t>137178003</t>
-  </si>
-  <si>
-    <t>Contreras, Brian</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>0000703226</t>
-  </si>
-  <si>
-    <t>656253574</t>
-  </si>
-  <si>
     <t>Cortez, Kevin</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>0000659113</t>
-  </si>
-  <si>
-    <t>625928562</t>
-  </si>
-  <si>
-    <t>Cuevas, Marcelo</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>0000681979</t>
-  </si>
-  <si>
-    <t>615873427</t>
-  </si>
-  <si>
-    <t>Cuevas Barragan, Carlos</t>
-  </si>
-  <si>
-    <t>0000659051</t>
-  </si>
-  <si>
-    <t>625154423</t>
-  </si>
-  <si>
-    <t>Dean, Jacob P</t>
-  </si>
-  <si>
-    <t>0000701059</t>
-  </si>
-  <si>
-    <t>658836473</t>
-  </si>
-  <si>
-    <t>Duarte, Esau</t>
-  </si>
-  <si>
-    <t>0000697052</t>
-  </si>
-  <si>
-    <t>654060734</t>
-  </si>
-  <si>
-    <t>Duarte, Kevin</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>0000659000</t>
-  </si>
-  <si>
-    <t>607794927</t>
-  </si>
-  <si>
-    <t>Espinoza, Jose Federico</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>0000659046</t>
-  </si>
-  <si>
-    <t>615292328</t>
-  </si>
-  <si>
-    <t>Esquivel, Kleber</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>0000674802</t>
-  </si>
-  <si>
-    <t>611882540</t>
-  </si>
-  <si>
-    <t>Flores, Saul Daniel L</t>
-  </si>
-  <si>
-    <t>0000659080</t>
-  </si>
-  <si>
-    <t>621364058</t>
-  </si>
-  <si>
-    <t>Garcia Garcia, Eduardo</t>
-  </si>
-  <si>
-    <t>0000703807</t>
-  </si>
-  <si>
-    <t>675142379</t>
-  </si>
-  <si>
-    <t>Gastelum, Miguel</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>0000703224</t>
-  </si>
-  <si>
-    <t>672305698</t>
-  </si>
-  <si>
-    <t>Gomez, Raudel</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>0000668811</t>
-  </si>
-  <si>
-    <t>341127082</t>
-  </si>
-  <si>
-    <t>Gonzalez, Alejandro</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>0000668813</t>
-  </si>
-  <si>
-    <t>627736546</t>
-  </si>
-  <si>
-    <t>Gonzalez, Emanuel</t>
-  </si>
-  <si>
-    <t>0000659063</t>
-  </si>
-  <si>
-    <t>623234232</t>
-  </si>
-  <si>
-    <t>Gonzalez, Miguel</t>
-  </si>
-  <si>
-    <t>0000703227</t>
-  </si>
-  <si>
-    <t>613227314</t>
-  </si>
-  <si>
-    <t>Hernandez, Carlos</t>
-  </si>
-  <si>
-    <t>0000703225</t>
-  </si>
-  <si>
-    <t>502304819</t>
-  </si>
-  <si>
-    <t>Hernandez, Edy</t>
-  </si>
-  <si>
-    <t>0000659040</t>
-  </si>
-  <si>
-    <t>618243648</t>
-  </si>
-  <si>
-    <t>Hernandez, Sergio</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>0000659102</t>
-  </si>
-  <si>
-    <t>655411126</t>
-  </si>
-  <si>
-    <t>Lopez, Daniel</t>
-  </si>
-  <si>
-    <t>0000701804</t>
-  </si>
-  <si>
-    <t>189351494</t>
-  </si>
-  <si>
-    <t>Lopez, Gerwin A</t>
-  </si>
-  <si>
-    <t>0000703233</t>
-  </si>
-  <si>
-    <t>271810139</t>
-  </si>
-  <si>
-    <t>Lopez, Marlon</t>
-  </si>
-  <si>
-    <t>0000659039</t>
-  </si>
-  <si>
-    <t>635455748</t>
-  </si>
-  <si>
-    <t>Lopez, Yair A</t>
-  </si>
-  <si>
-    <t>0000659048</t>
-  </si>
-  <si>
-    <t>609226343</t>
-  </si>
-  <si>
-    <t>Lopez, Zeferino</t>
-  </si>
-  <si>
-    <t>0000703230</t>
-  </si>
-  <si>
-    <t>626187104</t>
-  </si>
-  <si>
-    <t>Marquez, Abraham</t>
-  </si>
-  <si>
-    <t>0000659009</t>
-  </si>
-  <si>
-    <t>621101210</t>
-  </si>
-  <si>
-    <t>Martinez, Alberto</t>
-  </si>
-  <si>
-    <t>0000659030</t>
-  </si>
-  <si>
-    <t>601903561</t>
-  </si>
-  <si>
-    <t>Martinez, Emiliano B</t>
-  </si>
-  <si>
-    <t>0000659038</t>
-  </si>
-  <si>
-    <t>607333861</t>
-  </si>
-  <si>
-    <t>Martinez, Maciel</t>
-  </si>
-  <si>
-    <t>0000698156</t>
-  </si>
-  <si>
-    <t>660484575</t>
-  </si>
-  <si>
-    <t>Mateos, Daniel</t>
-  </si>
-  <si>
-    <t>0000659047</t>
-  </si>
-  <si>
-    <t>610215629</t>
-  </si>
-  <si>
-    <t>Moreno, Eduardo</t>
-  </si>
-  <si>
-    <t>0000703425</t>
-  </si>
-  <si>
-    <t>657901054</t>
-  </si>
-  <si>
-    <t>Navarro Barajas, Jose M</t>
-  </si>
-  <si>
-    <t>0000688269</t>
-  </si>
-  <si>
-    <t>622936952</t>
-  </si>
-  <si>
-    <t>Olivares, Alberto M</t>
-  </si>
-  <si>
-    <t>0000659093</t>
-  </si>
-  <si>
-    <t>086310738</t>
-  </si>
-  <si>
-    <t>Pelagio, Miguel Angel</t>
-  </si>
-  <si>
-    <t>0000704285</t>
-  </si>
-  <si>
-    <t>649299985</t>
-  </si>
-  <si>
-    <t>Penaloza Ramirez, Eddy</t>
-  </si>
-  <si>
-    <t>0000659101</t>
-  </si>
-  <si>
-    <t>797771646</t>
-  </si>
-  <si>
-    <t>Perez, Edgar</t>
-  </si>
-  <si>
-    <t>0000682814</t>
-  </si>
-  <si>
-    <t>645024748</t>
-  </si>
-  <si>
-    <t>Ramos Grana, Omar</t>
-  </si>
-  <si>
-    <t>0000699565</t>
-  </si>
-  <si>
-    <t>654991245</t>
-  </si>
-  <si>
-    <t>Rodriguez, Antoni</t>
-  </si>
-  <si>
-    <t>0000659086</t>
-  </si>
-  <si>
-    <t>634473263</t>
-  </si>
-  <si>
-    <t>Santos, Efrain</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>0000659084</t>
-  </si>
-  <si>
-    <t>603297017</t>
-  </si>
-  <si>
-    <t>Santos, Javier</t>
-  </si>
-  <si>
-    <t>0000702972</t>
-  </si>
-  <si>
-    <t>006437019</t>
-  </si>
-  <si>
-    <t>Serrano, Erick V</t>
-  </si>
-  <si>
-    <t>0000659090</t>
-  </si>
-  <si>
-    <t>625855596</t>
-  </si>
-  <si>
-    <t>Torrez, Jose R</t>
-  </si>
-  <si>
-    <t>0000668810</t>
-  </si>
-  <si>
-    <t>602060741</t>
-  </si>
-  <si>
-    <t>Valle, Victor</t>
-  </si>
-  <si>
-    <t>0000702061</t>
-  </si>
-  <si>
-    <t>640670356</t>
-  </si>
-  <si>
-    <t>Vargas Pineda, Karina</t>
-  </si>
-  <si>
-    <t>0000678021</t>
-  </si>
-  <si>
-    <t>624989352</t>
-  </si>
-  <si>
-    <t>Vera, Erick</t>
-  </si>
-  <si>
-    <t>0000659045</t>
-  </si>
-  <si>
-    <t>628795401</t>
-  </si>
-  <si>
-    <t>Vera, Victor</t>
-  </si>
-  <si>
-    <t>0000703234</t>
-  </si>
-  <si>
-    <t>625483371</t>
-  </si>
-  <si>
-    <t>Zamara, Cesar</t>
+    <t>Navichoque, Marvin</t>
+  </si>
+  <si>
+    <t>Gomez, Randal</t>
   </si>
   <si>
     <t>0000659058</t>
@@ -1104,46 +1017,19 @@
     <t>1731.00</t>
   </si>
   <si>
-    <t>0000704525</t>
-  </si>
-  <si>
-    <t>624573490</t>
-  </si>
-  <si>
-    <t>Alvarez, Rafael</t>
+    <t>0000658982</t>
+  </si>
+  <si>
+    <t>897981424</t>
+  </si>
+  <si>
+    <t>Gomez, Jose</t>
   </si>
   <si>
     <t>SOLAR</t>
   </si>
   <si>
-    <t>0000704524</t>
-  </si>
-  <si>
-    <t>606905784</t>
-  </si>
-  <si>
-    <t>Garcia Gonzalez, Robert</t>
-  </si>
-  <si>
-    <t>0000658982</t>
-  </si>
-  <si>
-    <t>897981424</t>
-  </si>
-  <si>
-    <t>Gomez, Jose</t>
-  </si>
-  <si>
-    <t>0000704527</t>
-  </si>
-  <si>
-    <t>628913671</t>
-  </si>
-  <si>
-    <t>Gonzalez, Jesus J</t>
-  </si>
-  <si>
-    <t>45.00</t>
+    <t>$200 Payback of Advance</t>
   </si>
   <si>
     <t>0000697056</t>
@@ -1171,6 +1057,9 @@
   </si>
   <si>
     <t>Robledo, Francisco</t>
+  </si>
+  <si>
+    <t>$100 Payback of Advance</t>
   </si>
   <si>
     <t>#</t>
@@ -1184,10 +1073,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1205,8 +1094,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1217,6 +1112,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFDE9D9"/>
         <bgColor rgb="FFFDE9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -1246,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1278,11 +1179,26 @@
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1667,2346 +1583,2734 @@
       <c r="AB6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2"/>
-      <c r="AA7" s="2"/>
+      <c r="F7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="AB7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>38</v>
+      <c r="A8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z8" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="W9" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="X9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AA9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AB9" s="11"/>
+      <c r="C9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB9" s="12">
+        <f>(F9*H9)+(F9*I9)+(F9*J9)+(F9*K9)+(F9*L9)+Q9+S9+U9+W9+Y9+Z9</f>
+        <v>112</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="E10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
+      <c r="H10" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
       <c r="AA10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB10" s="11">
+        <v>35</v>
+      </c>
+      <c r="AB10" s="12">
         <f>(F10/40*H10)+(F10/40*K10)+(F10/40*L10)+N10+O10</f>
-        <v>0</v>
+        <v>1634.62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="H11" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
       <c r="AA11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB11" s="11">
+        <v>35</v>
+      </c>
+      <c r="AB11" s="12">
         <f>(F11*H11)+(F11*I11)+(F11*J11)+(F11*K11)+(F11*L11)+Q11+S11+U11+W11+Y11+Z11</f>
-        <v>0</v>
+        <v>896</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="H12" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
       <c r="AA12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB12" s="11">
-        <f t="shared" ref="AB12:AB13" si="1">(F12*H12)+(F12*I12)+(F12*J12)+(F12*K12)+(F12*L12)+Q12+S12+U12+W12+Y12+Z12+O12</f>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB12" s="12">
+        <f>(F12/40*H12)+(F12/40*K12)+(F12/40*L12)+N12+O12</f>
+        <v>1538.47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
       <c r="AA13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB13" s="11">
-        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="AB13" s="12">
+        <f t="shared" ref="AB13:AB75" si="1">(F13*H13)+(F13*I13)+(F13*J13)+(F13*K13)+(F13*L13)+Q13+S13+U13+W13+Y13+Z13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
+      <c r="H14" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
       <c r="AA14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB14" s="11">
-        <f>(F14/40*H14)+(F14/40*K14)+(F14/40*L14)+N14+O14</f>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB14" s="12">
+        <f t="shared" si="1"/>
+        <v>1160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>113</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="H15" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I15" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
       <c r="AA15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB15" s="11">
-        <f t="shared" ref="AB15:AB80" si="2">(F15*H15)+(F15*I15)+(F15*J15)+(F15*K15)+(F15*L15)+Q15+S15+U15+W15+Y15+Z15</f>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB15" s="12">
+        <f t="shared" si="1"/>
+        <v>1840</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB16" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="H16" s="11">
+        <v>31.5</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB16" s="12">
+        <f t="shared" si="1"/>
+        <v>896</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="H17" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
       <c r="AA17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB17" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB17" s="12">
+        <f t="shared" si="1"/>
+        <v>696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="H18" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
       <c r="AA18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB18" s="12">
+        <f t="shared" si="1"/>
+        <v>700</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="H19" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
       <c r="AA19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB19" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB19" s="12">
+        <f t="shared" si="1"/>
+        <v>1120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H20" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
       <c r="AA20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB20" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB20" s="12">
+        <f t="shared" si="1"/>
+        <v>1232</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H21" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
       <c r="AA21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB21" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB21" s="12">
+        <f t="shared" si="1"/>
+        <v>1400</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
+      <c r="H22" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="S22" s="11">
+        <v>400.0</v>
+      </c>
+      <c r="T22" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="U22" s="11">
+        <v>400.0</v>
+      </c>
+      <c r="V22" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W22" s="11">
+        <v>400.0</v>
+      </c>
+      <c r="X22" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y22" s="11">
+        <v>400.0</v>
+      </c>
+      <c r="Z22" s="11"/>
       <c r="AA22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB22" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB22" s="12">
+        <f t="shared" si="1"/>
+        <v>1600</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H23" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="I23" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
       <c r="AA23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB23" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB23" s="12">
+        <f t="shared" si="1"/>
+        <v>702</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H24" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
       <c r="AA24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB24" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB24" s="12">
+        <f t="shared" si="1"/>
+        <v>576</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H25" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="I25" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
       <c r="AA25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB25" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB25" s="12">
+        <f t="shared" si="1"/>
+        <v>1020</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="12"/>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H26" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="S26" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="T26" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="U26" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="V26" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W26" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
       <c r="AA26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB26" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB26" s="12">
+        <f t="shared" si="1"/>
+        <v>1210</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H27" s="11">
+        <v>38.0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11">
+        <v>36.0</v>
+      </c>
       <c r="AA27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB27" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB27" s="12">
+        <f t="shared" si="1"/>
+        <v>1632</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H28" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="I28" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
       <c r="AA28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB28" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB28" s="12">
+        <f t="shared" si="1"/>
+        <v>728</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="S29" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="T29" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="U29" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="V29" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="W29" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="X29" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="Y29" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="Z29" s="11"/>
       <c r="AA29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB29" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB29" s="12">
+        <f t="shared" si="1"/>
+        <v>800</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
-      <c r="Y30" s="12"/>
-      <c r="Z30" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H30" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="S30" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="T30" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="U30" s="11">
+        <v>125.0</v>
+      </c>
+      <c r="V30" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="W30" s="11">
+        <v>125.0</v>
+      </c>
+      <c r="X30" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="Y30" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="Z30" s="11"/>
       <c r="AA30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB30" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB30" s="12">
+        <f t="shared" si="1"/>
+        <v>990</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="S31" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="T31" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="U31" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="V31" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="W31" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="X31" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="Y31" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="Z31" s="11"/>
       <c r="AA31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB31" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB31" s="12">
+        <f t="shared" si="1"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H32" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="I32" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
       <c r="AA32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB32" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB32" s="12">
+        <f t="shared" si="1"/>
+        <v>1190</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="S33" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="T33" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="U33" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="V33" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W33" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="X33" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y33" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="Z33" s="11"/>
       <c r="AA33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB33" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB33" s="12">
+        <f t="shared" si="1"/>
+        <v>950</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H34" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="Y34" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="Z34" s="11">
+        <v>36.0</v>
+      </c>
       <c r="AA34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB34" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB34" s="12">
+        <f t="shared" si="1"/>
+        <v>584</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H35" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="S35" s="11">
+        <v>600.0</v>
+      </c>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11">
+        <v>144.0</v>
+      </c>
       <c r="AA35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB35" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB35" s="12">
+        <f t="shared" si="1"/>
+        <v>1320</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H36" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>700.0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="U36" s="11">
+        <v>300.0</v>
+      </c>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11">
+        <v>144.0</v>
+      </c>
       <c r="AA36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB36" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB36" s="12">
+        <f t="shared" si="1"/>
+        <v>1828</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H37" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="I37" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
       <c r="AA37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB37" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB37" s="12">
+        <f t="shared" si="1"/>
+        <v>1069.5</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="12"/>
-      <c r="X38" s="12"/>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H38" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I38" s="11">
+        <v>6.5</v>
+      </c>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
       <c r="AA38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB38" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB38" s="12">
+        <f t="shared" si="1"/>
+        <v>1906.5</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="S39" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="T39" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="U39" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="V39" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W39" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="X39" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y39" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="Z39" s="11"/>
       <c r="AA39" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB39" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB39" s="12">
+        <f t="shared" si="1"/>
+        <v>950</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H40" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>100.0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="U40" s="11">
+        <v>150.0</v>
+      </c>
+      <c r="V40" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W40" s="11">
+        <v>225.0</v>
+      </c>
+      <c r="X40" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y40" s="11">
+        <v>225.0</v>
+      </c>
+      <c r="Z40" s="11"/>
       <c r="AA40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB40" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB40" s="12">
+        <f t="shared" si="1"/>
+        <v>934</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H41" s="11">
+        <v>38.0</v>
+      </c>
+      <c r="I41" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
       <c r="AA41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB41" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB41" s="12">
+        <f t="shared" si="1"/>
+        <v>1935</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H42" s="11">
+        <v>38.0</v>
+      </c>
+      <c r="I42" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
       <c r="AA42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB42" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB42" s="12">
+        <f t="shared" si="1"/>
+        <v>1558</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H43" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="S43" s="11">
+        <v>552.0</v>
+      </c>
+      <c r="T43" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="U43" s="11">
+        <v>552.0</v>
+      </c>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="Y43" s="11">
+        <v>552.0</v>
+      </c>
+      <c r="Z43" s="11">
+        <v>144.0</v>
+      </c>
       <c r="AA43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB43" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB43" s="12">
+        <f t="shared" si="1"/>
+        <v>2440</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H44" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
       <c r="AA44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB44" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB44" s="12">
+        <f t="shared" si="1"/>
+        <v>1776</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H45" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="I45" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
       <c r="AA45" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB45" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB45" s="12">
+        <f t="shared" si="1"/>
+        <v>637.5</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
-      <c r="S46" s="12"/>
-      <c r="T46" s="12"/>
-      <c r="U46" s="12"/>
-      <c r="V46" s="12"/>
-      <c r="W46" s="12"/>
-      <c r="X46" s="12"/>
-      <c r="Y46" s="12"/>
-      <c r="Z46" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H46" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>100.0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="X46" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y46" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="Z46" s="11">
+        <v>144.0</v>
+      </c>
       <c r="AA46" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB46" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB46" s="12">
+        <f t="shared" si="1"/>
+        <v>924</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="12"/>
-      <c r="Z47" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="S47" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="T47" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="U47" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="V47" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W47" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="X47" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y47" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="Z47" s="11"/>
       <c r="AA47" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB47" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB47" s="12">
+        <f t="shared" si="1"/>
+        <v>950</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12"/>
-      <c r="P48" s="12"/>
-      <c r="Q48" s="12"/>
-      <c r="R48" s="12"/>
-      <c r="S48" s="12"/>
-      <c r="T48" s="12"/>
-      <c r="U48" s="12"/>
-      <c r="V48" s="12"/>
-      <c r="W48" s="12"/>
-      <c r="X48" s="12"/>
-      <c r="Y48" s="12"/>
-      <c r="Z48" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H48" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
       <c r="AA48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB48" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB48" s="12">
+        <f t="shared" si="1"/>
+        <v>1110</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="12"/>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H49" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="S49" s="11">
+        <v>300.0</v>
+      </c>
+      <c r="T49" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="U49" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="V49" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="W49" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="X49" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y49" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="Z49" s="11"/>
       <c r="AA49" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB49" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB49" s="12">
+        <f t="shared" si="1"/>
+        <v>1637</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
-      <c r="Z50" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H50" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="I50" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
       <c r="AA50" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB50" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB50" s="12">
+        <f t="shared" si="1"/>
+        <v>1360</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H51" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="I51" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
       <c r="AA51" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB51" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB51" s="12">
+        <f t="shared" si="1"/>
+        <v>884</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H52" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="S52" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="T52" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="U52" s="11">
+        <v>663.0</v>
+      </c>
+      <c r="V52" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="W52" s="11">
+        <v>663.0</v>
+      </c>
+      <c r="X52" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y52" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="Z52" s="11"/>
       <c r="AA52" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB52" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB52" s="12">
+        <f t="shared" si="1"/>
+        <v>2200</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>246</v>
+        <v>112</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H53" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="U53" s="11">
+        <v>320.0</v>
+      </c>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
       <c r="AA53" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB53" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB53" s="12">
+        <f t="shared" si="1"/>
+        <v>1480</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -4020,42 +4324,60 @@
         <v>249</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H54" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="S54" s="11">
+        <v>120.0</v>
+      </c>
+      <c r="T54" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="U54" s="11">
+        <v>120.0</v>
+      </c>
+      <c r="V54" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="W54" s="11">
+        <v>140.0</v>
+      </c>
+      <c r="X54" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y54" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="Z54" s="11"/>
       <c r="AA54" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB54" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB54" s="12">
+        <f t="shared" si="1"/>
+        <v>855</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -4069,42 +4391,48 @@
         <v>252</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="12"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="12"/>
-      <c r="Z55" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H55" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+      <c r="R55" s="11"/>
+      <c r="S55" s="11"/>
+      <c r="T55" s="11"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W55" s="11">
+        <v>320.0</v>
+      </c>
+      <c r="X55" s="11"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
       <c r="AA55" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB55" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB55" s="12">
+        <f t="shared" si="1"/>
+        <v>1160</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
@@ -4118,2043 +4446,1925 @@
         <v>255</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12"/>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H56" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="I56" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
       <c r="AA56" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB56" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB56" s="12">
+        <f t="shared" si="1"/>
+        <v>754</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB57" s="11">
-        <f t="shared" si="2"/>
+      <c r="D57" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB57" s="18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D58" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="G58" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H58" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="I58" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
       <c r="AA58" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB58" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB58" s="12">
+        <f t="shared" si="1"/>
+        <v>896</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="12"/>
-      <c r="V59" s="12"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="12"/>
-      <c r="Y59" s="12"/>
-      <c r="Z59" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H59" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="S59" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="T59" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="U59" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="V59" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W59" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="X59" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y59" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="Z59" s="11"/>
       <c r="AA59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB59" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB59" s="12">
+        <f t="shared" si="1"/>
+        <v>950</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="12"/>
-      <c r="V60" s="12"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="12"/>
-      <c r="Y60" s="12"/>
-      <c r="Z60" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H60" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
+      <c r="S60" s="11"/>
+      <c r="T60" s="11"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W60" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="X60" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y60" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="Z60" s="11">
+        <v>144.0</v>
+      </c>
       <c r="AA60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB60" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB60" s="12">
+        <f t="shared" si="1"/>
+        <v>1516</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12"/>
-      <c r="V61" s="12"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="12"/>
-      <c r="Y61" s="12"/>
-      <c r="Z61" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H61" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+      <c r="R61" s="11"/>
+      <c r="S61" s="11"/>
+      <c r="T61" s="11"/>
+      <c r="U61" s="11"/>
+      <c r="V61" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W61" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="X61" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y61" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="Z61" s="11">
+        <v>144.0</v>
+      </c>
       <c r="AA61" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB61" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB61" s="12">
+        <f t="shared" si="1"/>
+        <v>1452</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12"/>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="12"/>
-      <c r="Z62" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H62" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="S62" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="T62" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="U62" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="V62" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W62" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
       <c r="AA62" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB62" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB62" s="12">
+        <f t="shared" si="1"/>
+        <v>1354</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>204</v>
+        <v>127</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12"/>
-      <c r="V63" s="12"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="12"/>
-      <c r="Z63" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="S63" s="11">
+        <v>300.0</v>
+      </c>
+      <c r="T63" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="U63" s="11">
+        <v>300.0</v>
+      </c>
+      <c r="V63" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W63" s="11">
+        <v>300.0</v>
+      </c>
+      <c r="X63" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y63" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="Z63" s="11"/>
       <c r="AA63" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB63" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB63" s="12">
+        <f t="shared" si="1"/>
+        <v>1150</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="12"/>
-      <c r="W64" s="12"/>
-      <c r="X64" s="12"/>
-      <c r="Y64" s="12"/>
-      <c r="Z64" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H64" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W64" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="X64" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y64" s="11">
+        <v>250.0</v>
+      </c>
+      <c r="Z64" s="11">
+        <v>144.0</v>
+      </c>
       <c r="AA64" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB64" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB64" s="12">
+        <f t="shared" si="1"/>
+        <v>1108</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="12"/>
-      <c r="V65" s="12"/>
-      <c r="W65" s="12"/>
-      <c r="X65" s="12"/>
-      <c r="Y65" s="12"/>
-      <c r="Z65" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H65" s="11">
+        <v>38.0</v>
+      </c>
+      <c r="I65" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
+      <c r="X65" s="11"/>
+      <c r="Y65" s="11"/>
+      <c r="Z65" s="11"/>
       <c r="AA65" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB65" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB65" s="12">
+        <f t="shared" si="1"/>
+        <v>1271</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="12"/>
-      <c r="V66" s="12"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H66" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W66" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="X66" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y66" s="11">
+        <v>200.0</v>
+      </c>
+      <c r="Z66" s="11">
+        <v>144.0</v>
+      </c>
       <c r="AA66" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB66" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB66" s="12">
+        <f t="shared" si="1"/>
+        <v>864</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12"/>
-      <c r="U67" s="12"/>
-      <c r="V67" s="12"/>
-      <c r="W67" s="12"/>
-      <c r="X67" s="12"/>
-      <c r="Y67" s="12"/>
-      <c r="Z67" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H67" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="S67" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="T67" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="U67" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="V67" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W67" s="11">
+        <v>350.0</v>
+      </c>
+      <c r="X67" s="11"/>
+      <c r="Y67" s="11"/>
+      <c r="Z67" s="11"/>
       <c r="AA67" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB67" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB67" s="12">
+        <f t="shared" si="1"/>
+        <v>1370</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>290</v>
-      </c>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
       <c r="C68" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>226</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F68" s="6"/>
       <c r="G68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="12"/>
-      <c r="V68" s="12"/>
-      <c r="W68" s="12"/>
-      <c r="X68" s="12"/>
-      <c r="Y68" s="12"/>
-      <c r="Z68" s="12"/>
-      <c r="AA68" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB68" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W68" s="11">
+        <v>360.0</v>
+      </c>
+      <c r="X68" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y68" s="11">
+        <v>360.0</v>
+      </c>
+      <c r="Z68" s="11"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="12">
+        <f t="shared" si="1"/>
+        <v>720</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B69" s="5" t="s">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" s="6"/>
+      <c r="G69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W69" s="11">
+        <v>810.0</v>
+      </c>
+      <c r="X69" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y69" s="11">
+        <v>810.0</v>
+      </c>
+      <c r="Z69" s="11"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="12">
+        <f t="shared" si="1"/>
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
-      <c r="U69" s="12"/>
-      <c r="V69" s="12"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="12"/>
-      <c r="Z69" s="12"/>
-      <c r="AA69" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB69" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="5" t="s">
+      <c r="D70" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" s="6"/>
+      <c r="G70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W70" s="11">
+        <v>360.0</v>
+      </c>
+      <c r="X70" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y70" s="11">
+        <v>360.0</v>
+      </c>
+      <c r="Z70" s="11"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="12">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="D71" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" s="6">
+        <v>32.0</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H71" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="12">
+        <f t="shared" si="1"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D72" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="6"/>
+      <c r="G72" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W72" s="11">
+        <v>360.0</v>
+      </c>
+      <c r="X72" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y72" s="11">
+        <v>360.0</v>
+      </c>
+      <c r="Z72" s="11"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="12">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12"/>
-      <c r="V70" s="12"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="12"/>
-      <c r="Y70" s="12"/>
-      <c r="Z70" s="12"/>
-      <c r="AA70" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB70" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="5" t="s">
+      <c r="D73" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F73" s="6">
+        <v>36.0</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H73" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="U73" s="11">
+        <v>100.0</v>
+      </c>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
+      <c r="X73" s="11"/>
+      <c r="Y73" s="11"/>
+      <c r="Z73" s="11">
+        <v>106.0</v>
+      </c>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="12">
+        <f t="shared" si="1"/>
+        <v>890</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="D74" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" s="6"/>
+      <c r="G74" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W74" s="11">
+        <v>360.0</v>
+      </c>
+      <c r="X74" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y74" s="11">
+        <v>360.0</v>
+      </c>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="12">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="12"/>
-      <c r="Q71" s="12"/>
-      <c r="R71" s="12"/>
-      <c r="S71" s="12"/>
-      <c r="T71" s="12"/>
-      <c r="U71" s="12"/>
-      <c r="V71" s="12"/>
-      <c r="W71" s="12"/>
-      <c r="X71" s="12"/>
-      <c r="Y71" s="12"/>
-      <c r="Z71" s="12"/>
-      <c r="AA71" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB71" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="12"/>
-      <c r="P72" s="12"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="12"/>
-      <c r="S72" s="12"/>
-      <c r="T72" s="12"/>
-      <c r="U72" s="12"/>
-      <c r="V72" s="12"/>
-      <c r="W72" s="12"/>
-      <c r="X72" s="12"/>
-      <c r="Y72" s="12"/>
-      <c r="Z72" s="12"/>
-      <c r="AA72" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB72" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="12"/>
-      <c r="P73" s="12"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
-      <c r="S73" s="12"/>
-      <c r="T73" s="12"/>
-      <c r="U73" s="12"/>
-      <c r="V73" s="12"/>
-      <c r="W73" s="12"/>
-      <c r="X73" s="12"/>
-      <c r="Y73" s="12"/>
-      <c r="Z73" s="12"/>
-      <c r="AA73" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB73" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="12"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="12"/>
-      <c r="S74" s="12"/>
-      <c r="T74" s="12"/>
-      <c r="U74" s="12"/>
-      <c r="V74" s="12"/>
-      <c r="W74" s="12"/>
-      <c r="X74" s="12"/>
-      <c r="Y74" s="12"/>
-      <c r="Z74" s="12"/>
-      <c r="AA74" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB74" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="D75" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>113</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F75" s="6"/>
       <c r="G75" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="12"/>
-      <c r="P75" s="12"/>
-      <c r="Q75" s="12"/>
-      <c r="R75" s="12"/>
-      <c r="S75" s="12"/>
-      <c r="T75" s="12"/>
-      <c r="U75" s="12"/>
-      <c r="V75" s="12"/>
-      <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
-      <c r="Y75" s="12"/>
-      <c r="Z75" s="12"/>
-      <c r="AA75" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB75" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="S75" s="11">
+        <v>150.0</v>
+      </c>
+      <c r="T75" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="U75" s="11">
+        <v>160.0</v>
+      </c>
+      <c r="V75" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="W75" s="11">
+        <v>160.0</v>
+      </c>
+      <c r="X75" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="Y75" s="11">
+        <v>150.0</v>
+      </c>
+      <c r="Z75" s="11"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="12">
+        <f t="shared" si="1"/>
+        <v>620</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
-      <c r="T76" s="12"/>
-      <c r="U76" s="12"/>
-      <c r="V76" s="12"/>
-      <c r="W76" s="12"/>
-      <c r="X76" s="12"/>
-      <c r="Y76" s="12"/>
-      <c r="Z76" s="12"/>
+        <v>304</v>
+      </c>
+      <c r="H76" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="11"/>
       <c r="AA76" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB76" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB76" s="12">
+        <f t="shared" ref="AB76:AB83" si="2">(F76/40*H76)+(F76/40*K76)+(F76/40*L76)+N76+O76</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>97</v>
+        <v>308</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>226</v>
+        <v>309</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
-      <c r="S77" s="12"/>
-      <c r="T77" s="12"/>
-      <c r="U77" s="12"/>
-      <c r="V77" s="12"/>
-      <c r="W77" s="12"/>
-      <c r="X77" s="12"/>
-      <c r="Y77" s="12"/>
-      <c r="Z77" s="12"/>
+        <v>304</v>
+      </c>
+      <c r="H77" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11">
+        <v>3500.0</v>
+      </c>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
       <c r="AA77" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB77" s="11">
+        <v>35</v>
+      </c>
+      <c r="AB77" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="5" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>163</v>
+        <v>313</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="12"/>
-      <c r="P78" s="12"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="12"/>
-      <c r="S78" s="12"/>
-      <c r="T78" s="12"/>
-      <c r="U78" s="12"/>
-      <c r="V78" s="12"/>
-      <c r="W78" s="12"/>
-      <c r="X78" s="12"/>
-      <c r="Y78" s="12"/>
-      <c r="Z78" s="12"/>
+        <v>304</v>
+      </c>
+      <c r="H78" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
+      <c r="Y78" s="11"/>
+      <c r="Z78" s="11"/>
       <c r="AA78" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB78" s="11">
+        <v>35</v>
+      </c>
+      <c r="AB78" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2884.62</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>98</v>
+        <v>317</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="12"/>
-      <c r="P79" s="12"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="12"/>
-      <c r="S79" s="12"/>
-      <c r="T79" s="12"/>
-      <c r="U79" s="12"/>
-      <c r="V79" s="12"/>
-      <c r="W79" s="12"/>
-      <c r="X79" s="12"/>
-      <c r="Y79" s="12"/>
-      <c r="Z79" s="12"/>
+        <v>304</v>
+      </c>
+      <c r="H79" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
+      <c r="Y79" s="11"/>
+      <c r="Z79" s="11"/>
       <c r="AA79" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB79" s="11">
+        <v>35</v>
+      </c>
+      <c r="AB79" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1692.32</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>98</v>
+        <v>321</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="12"/>
-      <c r="T80" s="12"/>
-      <c r="U80" s="12"/>
-      <c r="V80" s="12"/>
-      <c r="W80" s="12"/>
-      <c r="X80" s="12"/>
-      <c r="Y80" s="12"/>
-      <c r="Z80" s="12"/>
+        <v>304</v>
+      </c>
+      <c r="H80" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="11"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
+      <c r="Y80" s="11"/>
+      <c r="Z80" s="11"/>
       <c r="AA80" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB80" s="13">
+        <v>35</v>
+      </c>
+      <c r="AB80" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="5" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>91</v>
+        <v>308</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="12"/>
-      <c r="O81" s="12"/>
-      <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="12"/>
-      <c r="S81" s="12"/>
-      <c r="T81" s="12"/>
-      <c r="U81" s="12"/>
-      <c r="V81" s="12"/>
-      <c r="W81" s="12"/>
-      <c r="X81" s="12"/>
-      <c r="Y81" s="12"/>
-      <c r="Z81" s="12"/>
+        <v>304</v>
+      </c>
+      <c r="H81" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11">
+        <v>2500.0</v>
+      </c>
+      <c r="P81" s="11"/>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="11"/>
+      <c r="Y81" s="11"/>
+      <c r="Z81" s="11"/>
       <c r="AA81" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB81" s="11">
-        <f t="shared" ref="AB81:AB88" si="3">(F81/40*H81)+(F81/40*K81)+(F81/40*L81)+N81+O81</f>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="AB81" s="12">
+        <f t="shared" si="2"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H82" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11"/>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
+      <c r="Y82" s="11"/>
+      <c r="Z82" s="11"/>
+      <c r="AA82" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB82" s="12">
+        <f t="shared" si="2"/>
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H83" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="11"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
+      <c r="Y83" s="11"/>
+      <c r="Z83" s="11"/>
+      <c r="AA83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB83" s="12">
+        <f t="shared" si="2"/>
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="C84" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D84" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="5" t="s">
+      <c r="H84" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="I84" s="11">
+        <v>6.75</v>
+      </c>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="11"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="11"/>
+      <c r="AA84" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="AB84" s="12">
+        <f t="shared" ref="AB84:AB89" si="3">(F84*H84)+(F84*I84)+(F84*J84)+(F84*K84)+(F84*L84)+Q84+S84+U84+W84+Y84+Z84</f>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="12"/>
-      <c r="S82" s="12"/>
-      <c r="T82" s="12"/>
-      <c r="U82" s="12"/>
-      <c r="V82" s="12"/>
-      <c r="W82" s="12"/>
-      <c r="X82" s="12"/>
-      <c r="Y82" s="12"/>
-      <c r="Z82" s="12"/>
-      <c r="AA82" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB82" s="11">
+      <c r="B85" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H85" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="I85" s="11">
+        <v>7.75</v>
+      </c>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="11"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
+      <c r="Y85" s="11"/>
+      <c r="Z85" s="11"/>
+      <c r="AA85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB85" s="12">
+        <f t="shared" si="3"/>
+        <v>1132.5</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H86" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I86" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
+      <c r="P86" s="11"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
+      <c r="Y86" s="11"/>
+      <c r="Z86" s="11"/>
+      <c r="AA86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB86" s="12">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H87" s="11">
+        <v>40.0</v>
+      </c>
+      <c r="I87" s="11">
+        <v>7.5</v>
+      </c>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="11"/>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="11"/>
+      <c r="S87" s="11"/>
+      <c r="T87" s="11"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="11"/>
+      <c r="Y87" s="11"/>
+      <c r="Z87" s="11"/>
+      <c r="AA87" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB87" s="12">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="11">
+        <f t="shared" ref="H88:Z88" si="4">SUM(H9:H87)</f>
+        <v>1692.5</v>
+      </c>
+      <c r="I88" s="11">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="J88" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="6">
+        <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="P88" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R88" s="6">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="S88" s="6">
+        <f t="shared" si="4"/>
+        <v>6522</v>
+      </c>
+      <c r="T88" s="6">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="U88" s="6">
+        <f t="shared" si="4"/>
+        <v>5990</v>
+      </c>
+      <c r="V88" s="6">
+        <f t="shared" si="4"/>
+        <v>208.5</v>
+      </c>
+      <c r="W88" s="6">
+        <f t="shared" si="4"/>
+        <v>8683</v>
+      </c>
+      <c r="X88" s="6">
+        <f t="shared" si="4"/>
+        <v>198.5</v>
+      </c>
+      <c r="Y88" s="6">
+        <f t="shared" si="4"/>
+        <v>7827</v>
+      </c>
+      <c r="Z88" s="6">
+        <f t="shared" si="4"/>
+        <v>1330</v>
+      </c>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="12">
+        <f t="shared" si="3"/>
+        <v>30352</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="2"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-      <c r="P83" s="12"/>
-      <c r="Q83" s="12"/>
-      <c r="R83" s="12"/>
-      <c r="S83" s="12"/>
-      <c r="T83" s="12"/>
-      <c r="U83" s="12"/>
-      <c r="V83" s="12"/>
-      <c r="W83" s="12"/>
-      <c r="X83" s="12"/>
-      <c r="Y83" s="12"/>
-      <c r="Z83" s="12"/>
-      <c r="AA83" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB83" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
-      <c r="T84" s="12"/>
-      <c r="U84" s="12"/>
-      <c r="V84" s="12"/>
-      <c r="W84" s="12"/>
-      <c r="X84" s="12"/>
-      <c r="Y84" s="12"/>
-      <c r="Z84" s="12"/>
-      <c r="AA84" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB84" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B85" s="5" t="s">
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="B90" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
-      <c r="T85" s="12"/>
-      <c r="U85" s="12"/>
-      <c r="V85" s="12"/>
-      <c r="W85" s="12"/>
-      <c r="X85" s="12"/>
-      <c r="Y85" s="12"/>
-      <c r="Z85" s="12"/>
-      <c r="AA85" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB85" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="12"/>
-      <c r="O86" s="12"/>
-      <c r="P86" s="12"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="12"/>
-      <c r="S86" s="12"/>
-      <c r="T86" s="12"/>
-      <c r="U86" s="12"/>
-      <c r="V86" s="12"/>
-      <c r="W86" s="12"/>
-      <c r="X86" s="12"/>
-      <c r="Y86" s="12"/>
-      <c r="Z86" s="12"/>
-      <c r="AA86" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB86" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="12"/>
-      <c r="P87" s="12"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="12"/>
-      <c r="S87" s="12"/>
-      <c r="T87" s="12"/>
-      <c r="U87" s="12"/>
-      <c r="V87" s="12"/>
-      <c r="W87" s="12"/>
-      <c r="X87" s="12"/>
-      <c r="Y87" s="12"/>
-      <c r="Z87" s="12"/>
-      <c r="AA87" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB87" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="12"/>
-      <c r="P88" s="12"/>
-      <c r="Q88" s="12"/>
-      <c r="R88" s="12"/>
-      <c r="S88" s="12"/>
-      <c r="T88" s="12"/>
-      <c r="U88" s="12"/>
-      <c r="V88" s="12"/>
-      <c r="W88" s="12"/>
-      <c r="X88" s="12"/>
-      <c r="Y88" s="12"/>
-      <c r="Z88" s="12"/>
-      <c r="AA88" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB88" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="12"/>
-      <c r="S89" s="12"/>
-      <c r="T89" s="12"/>
-      <c r="U89" s="12"/>
-      <c r="V89" s="12"/>
-      <c r="W89" s="12"/>
-      <c r="X89" s="12"/>
-      <c r="Y89" s="12"/>
-      <c r="Z89" s="12"/>
-      <c r="AA89" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB89" s="11">
-        <f t="shared" ref="AB89:AB95" si="4">(F89*H89)+(F89*I89)+(F89*J89)+(F89*K89)+(F89*L89)+Q89+S89+U89+W89+Y89+Z89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H90" s="12"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="12"/>
-      <c r="S90" s="12"/>
-      <c r="T90" s="12"/>
-      <c r="U90" s="12"/>
-      <c r="V90" s="12"/>
-      <c r="W90" s="12"/>
-      <c r="X90" s="12"/>
-      <c r="Y90" s="12"/>
-      <c r="Z90" s="12"/>
-      <c r="AA90" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB90" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="D90" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="3"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H91" s="12"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="12"/>
-      <c r="O91" s="12"/>
-      <c r="P91" s="12"/>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="12"/>
-      <c r="S91" s="12"/>
-      <c r="T91" s="12"/>
-      <c r="U91" s="12"/>
-      <c r="V91" s="12"/>
-      <c r="W91" s="12"/>
-      <c r="X91" s="12"/>
-      <c r="Y91" s="12"/>
-      <c r="Z91" s="12"/>
-      <c r="AA91" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB91" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="A91" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="D91" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="5"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="2"/>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="3"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
-      <c r="S92" s="12"/>
-      <c r="T92" s="12"/>
-      <c r="U92" s="12"/>
-      <c r="V92" s="12"/>
-      <c r="W92" s="12"/>
-      <c r="X92" s="12"/>
-      <c r="Y92" s="12"/>
-      <c r="Z92" s="12"/>
-      <c r="AA92" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB92" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="A92" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="D92" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="5"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="2"/>
+      <c r="AA92" s="2"/>
+      <c r="AB92" s="3"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
-      <c r="P93" s="12"/>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12"/>
-      <c r="S93" s="12"/>
-      <c r="T93" s="12"/>
-      <c r="U93" s="12"/>
-      <c r="V93" s="12"/>
-      <c r="W93" s="12"/>
-      <c r="X93" s="12"/>
-      <c r="Y93" s="12"/>
-      <c r="Z93" s="12"/>
-      <c r="AA93" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB93" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="A93" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="D93" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="5"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="2"/>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="3"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
-      <c r="S94" s="12"/>
-      <c r="T94" s="12"/>
-      <c r="U94" s="12"/>
-      <c r="V94" s="12"/>
-      <c r="W94" s="12"/>
-      <c r="X94" s="12"/>
-      <c r="Y94" s="12"/>
-      <c r="Z94" s="12"/>
-      <c r="AA94" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB94" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="A94" s="2"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="2"/>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="3"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="12"/>
-      <c r="S95" s="12"/>
-      <c r="T95" s="12"/>
-      <c r="U95" s="12"/>
-      <c r="V95" s="12"/>
-      <c r="W95" s="12"/>
-      <c r="X95" s="12"/>
-      <c r="Y95" s="12"/>
-      <c r="Z95" s="12"/>
-      <c r="AA95" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB95" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="A95" s="2"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="2"/>
+      <c r="AA95" s="2"/>
+      <c r="AB95" s="3"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="2" t="s">
-        <v>385</v>
-      </c>
+      <c r="A96" s="2"/>
       <c r="B96" s="5"/>
-      <c r="C96" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="C96" s="2"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
       <c r="F96" s="6"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="12">
-        <f t="shared" ref="H96:Z96" si="5">SUM(H10:H95)</f>
-        <v>0</v>
-      </c>
-      <c r="I96" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L96" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M96" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N96" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O96" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P96" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q96" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R96" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S96" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T96" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U96" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V96" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W96" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X96" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y96" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z96" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="AA96" s="2"/>
       <c r="AB96" s="3"/>
     </row>
@@ -6170,15 +6380,10 @@
       <c r="AB97" s="3"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="A98" s="2"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="5"/>
       <c r="E98" s="5"/>
       <c r="F98" s="6"/>
       <c r="G98" s="2"/>
@@ -6186,13 +6391,10 @@
       <c r="AB98" s="3"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="D99" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="A99" s="2"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="5"/>
       <c r="E99" s="5"/>
       <c r="F99" s="6"/>
       <c r="G99" s="2"/>
@@ -6200,13 +6402,10 @@
       <c r="AB99" s="3"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="D100" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="A100" s="2"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="6"/>
       <c r="G100" s="2"/>
@@ -6214,13 +6413,10 @@
       <c r="AB100" s="3"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="D101" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="A101" s="2"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="5"/>
       <c r="E101" s="5"/>
       <c r="F101" s="6"/>
       <c r="G101" s="2"/>
@@ -16118,13 +16314,13 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Numeric Data Only - Hours input is restricted to Numeric Values between -9999.999 and 99999.999" sqref="H10:Z95">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Numeric Data Only - Hours input is restricted to Numeric Values between -9999.999 and 99999.999" sqref="H9:Z17 I18:Z18 H19:Z87">
       <formula1>-9999.999</formula1>
       <formula2>99999.999</formula2>
     </dataValidation>

--- a/wbs_template.xlsx
+++ b/wbs_template.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="rQTKgxHi4wGfg4SOswqBDNE9xQNtub5k5LoKR1jxgHk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="O16bd4SxvP7A/De/r0nsbf/0Qv51MoIg5NDorCrVPRM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="342">
   <si>
     <t># V</t>
   </si>
@@ -99,27 +99,18 @@
     <t>Period End</t>
   </si>
   <si>
-    <t>09/07/2025</t>
-  </si>
-  <si>
     <t># R</t>
   </si>
   <si>
     <t>Report Due</t>
   </si>
   <si>
-    <t>09/10/2025</t>
-  </si>
-  <si>
     <t># C</t>
   </si>
   <si>
     <t>Check Date</t>
   </si>
   <si>
-    <t>09/12/2025</t>
-  </si>
-  <si>
     <t># B:8</t>
   </si>
   <si>
@@ -375,9 +366,6 @@
     <t>Pacheco Estrada, Jesus</t>
   </si>
   <si>
-    <t>$500 Payback of Advance</t>
-  </si>
-  <si>
     <t>0000676086</t>
   </si>
   <si>
@@ -798,9 +786,6 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>No Longer Employed</t>
-  </si>
-  <si>
     <t>0000682814</t>
   </si>
   <si>
@@ -1029,9 +1014,6 @@
     <t>SOLAR</t>
   </si>
   <si>
-    <t>$200 Payback of Advance</t>
-  </si>
-  <si>
     <t>0000697056</t>
   </si>
   <si>
@@ -1059,13 +1041,7 @@
     <t>Robledo, Francisco</t>
   </si>
   <si>
-    <t>$100 Payback of Advance</t>
-  </si>
-  <si>
     <t>#</t>
-  </si>
-  <si>
-    <t>I hereby certify that these hours are true and correct:</t>
   </si>
 </sst>
 </file>
@@ -1538,9 +1514,7 @@
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
@@ -1550,14 +1524,12 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -1567,14 +1539,12 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="6"/>
@@ -1584,195 +1554,195 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="I7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="J7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="P7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="Q7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="S7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="T7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="U7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="V7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="W7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="X7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="Y7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="Z7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="AA7" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="AB7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="F8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="J8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="K8" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="L8" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="N8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="O8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="P8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="Q8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="R8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="S8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="T8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="R8" s="8" t="s">
+      <c r="U8" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="8" t="s">
+      <c r="V8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="T8" s="8" t="s">
+      <c r="W8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="8" t="s">
+      <c r="X8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="V8" s="8" t="s">
+      <c r="Y8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="W8" s="8" t="s">
+      <c r="Z8" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="X8" s="8" t="s">
+      <c r="AA8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Y8" s="8" t="s">
+      <c r="AB8" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB8" s="10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -1793,9 +1763,7 @@
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
-      <c r="AA9" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA9" s="2"/>
       <c r="AB9" s="12">
         <f>(F9*H9)+(F9*I9)+(F9*J9)+(F9*K9)+(F9*L9)+Q9+S9+U9+W9+Y9+Z9</f>
         <v>0</v>
@@ -1803,25 +1771,25 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -1842,9 +1810,7 @@
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
-      <c r="AA10" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA10" s="2"/>
       <c r="AB10" s="12">
         <f>(F10/40*H10)+(F10/40*K10)+(F10/40*L10)+N10+O10</f>
         <v>0</v>
@@ -1852,25 +1818,25 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -1891,9 +1857,7 @@
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
-      <c r="AA11" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA11" s="2"/>
       <c r="AB11" s="12">
         <f>(F11*H11)+(F11*I11)+(F11*J11)+(F11*K11)+(F11*L11)+Q11+S11+U11+W11+Y11+Z11</f>
         <v>0</v>
@@ -1901,25 +1865,25 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -1940,9 +1904,7 @@
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
-      <c r="AA12" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA12" s="2"/>
       <c r="AB12" s="12">
         <f>(F12/40*H12)+(F12/40*K12)+(F12/40*L12)+N12+O12</f>
         <v>0</v>
@@ -1950,25 +1912,25 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1989,9 +1951,7 @@
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
-      <c r="AA13" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA13" s="2"/>
       <c r="AB13" s="12">
         <f t="shared" ref="AB13:AB75" si="1">(F13*H13)+(F13*I13)+(F13*J13)+(F13*K13)+(F13*L13)+Q13+S13+U13+W13+Y13+Z13</f>
         <v>0</v>
@@ -1999,25 +1959,25 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -2038,9 +1998,7 @@
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
-      <c r="AA14" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA14" s="2"/>
       <c r="AB14" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2048,30 +2006,28 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="11">
-        <v>6.0</v>
-      </c>
+      <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -2089,40 +2045,36 @@
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
-      <c r="AA15" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA15" s="2"/>
       <c r="AB15" s="12">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="11">
-        <v>0.5</v>
-      </c>
+      <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -2140,35 +2092,33 @@
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
-      <c r="AA16" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="AA16" s="13"/>
       <c r="AB16" s="12">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -2189,9 +2139,7 @@
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
-      <c r="AA17" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA17" s="2"/>
       <c r="AB17" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2199,25 +2147,25 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -2238,9 +2186,7 @@
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
-      <c r="AA18" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA18" s="2"/>
       <c r="AB18" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2248,25 +2194,25 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -2287,9 +2233,7 @@
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
-      <c r="AA19" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA19" s="2"/>
       <c r="AB19" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2297,30 +2241,28 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="H20" s="11"/>
-      <c r="I20" s="11">
-        <v>6.5</v>
-      </c>
+      <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -2338,35 +2280,33 @@
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
-      <c r="AA20" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA20" s="2"/>
       <c r="AB20" s="12">
         <f t="shared" si="1"/>
-        <v>208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -2387,9 +2327,7 @@
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
-      <c r="AA21" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA21" s="2"/>
       <c r="AB21" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2397,25 +2335,25 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -2427,65 +2365,45 @@
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
-      <c r="R22" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="S22" s="11">
-        <v>400.0</v>
-      </c>
-      <c r="T22" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="U22" s="11">
-        <v>400.0</v>
-      </c>
-      <c r="V22" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W22" s="11">
-        <v>400.0</v>
-      </c>
-      <c r="X22" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y22" s="11">
-        <v>400.0</v>
-      </c>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
-      <c r="AA22" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA22" s="2"/>
       <c r="AB22" s="12">
         <f t="shared" si="1"/>
-        <v>1600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H23" s="11"/>
-      <c r="I23" s="11">
-        <v>2.0</v>
-      </c>
+      <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -2503,35 +2421,33 @@
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
-      <c r="AA23" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA23" s="2"/>
       <c r="AB23" s="12">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -2552,9 +2468,7 @@
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
-      <c r="AA24" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA24" s="2"/>
       <c r="AB24" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2562,30 +2476,28 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H25" s="11"/>
-      <c r="I25" s="11">
-        <v>2.0</v>
-      </c>
+      <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -2603,35 +2515,33 @@
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
-      <c r="AA25" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA25" s="2"/>
       <c r="AB25" s="12">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -2643,61 +2553,45 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
-      <c r="R26" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="S26" s="11">
-        <v>350.0</v>
-      </c>
-      <c r="T26" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="U26" s="11">
-        <v>350.0</v>
-      </c>
-      <c r="V26" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W26" s="11">
-        <v>350.0</v>
-      </c>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
-      <c r="AA26" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA26" s="2"/>
       <c r="AB26" s="12">
         <f t="shared" si="1"/>
-        <v>1050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="11">
-        <v>4.0</v>
-      </c>
+      <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -2714,43 +2608,37 @@
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
-      <c r="Z27" s="11">
-        <v>36.0</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="2"/>
       <c r="AB27" s="12">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H28" s="11"/>
-      <c r="I28" s="11">
-        <v>4.0</v>
-      </c>
+      <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -2768,35 +2656,33 @@
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
-      <c r="AA28" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA28" s="2"/>
       <c r="AB28" s="12">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -2808,60 +2694,42 @@
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
-      <c r="R29" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="S29" s="11">
-        <v>200.0</v>
-      </c>
-      <c r="T29" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="U29" s="11">
-        <v>200.0</v>
-      </c>
-      <c r="V29" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="W29" s="11">
-        <v>200.0</v>
-      </c>
-      <c r="X29" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="Y29" s="11">
-        <v>200.0</v>
-      </c>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
-      <c r="AA29" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA29" s="2"/>
       <c r="AB29" s="12">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -2873,60 +2741,42 @@
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
-      <c r="R30" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="S30" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="T30" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="U30" s="11">
-        <v>125.0</v>
-      </c>
-      <c r="V30" s="11">
-        <v>3.5</v>
-      </c>
-      <c r="W30" s="11">
-        <v>125.0</v>
-      </c>
-      <c r="X30" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="Y30" s="11">
-        <v>250.0</v>
-      </c>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
-      <c r="AA30" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA30" s="2"/>
       <c r="AB30" s="12">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -2938,65 +2788,45 @@
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
-      <c r="R31" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="S31" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="T31" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="U31" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="V31" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="W31" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="X31" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="Y31" s="11">
-        <v>250.0</v>
-      </c>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
-      <c r="AA31" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA31" s="2"/>
       <c r="AB31" s="12">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H32" s="11"/>
-      <c r="I32" s="11">
-        <v>3.0</v>
-      </c>
+      <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -3014,35 +2844,33 @@
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
-      <c r="AA32" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA32" s="2"/>
       <c r="AB32" s="12">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -3054,60 +2882,42 @@
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
-      <c r="R33" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="S33" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="T33" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="U33" s="11">
-        <v>200.0</v>
-      </c>
-      <c r="V33" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W33" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="X33" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y33" s="11">
-        <v>250.0</v>
-      </c>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
-      <c r="AA33" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA33" s="2"/>
       <c r="AB33" s="12">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -3125,44 +2935,36 @@
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
-      <c r="X34" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="Y34" s="11">
-        <v>200.0</v>
-      </c>
-      <c r="Z34" s="11">
-        <v>36.0</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="2"/>
       <c r="AB34" s="12">
         <f t="shared" si="1"/>
-        <v>236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -3174,50 +2976,42 @@
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
-      <c r="R35" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="S35" s="11">
-        <v>600.0</v>
-      </c>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
       <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
-      <c r="Z35" s="11">
-        <v>144.0</v>
-      </c>
-      <c r="AA35" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="2"/>
       <c r="AB35" s="12">
         <f t="shared" si="1"/>
-        <v>744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -3229,59 +3023,45 @@
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
-      <c r="R36" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="S36" s="11">
-        <v>700.0</v>
-      </c>
-      <c r="T36" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="U36" s="11">
-        <v>300.0</v>
-      </c>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
-      <c r="Z36" s="11">
-        <v>144.0</v>
-      </c>
-      <c r="AA36" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="2"/>
       <c r="AB36" s="12">
         <f t="shared" si="1"/>
-        <v>1144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H37" s="11"/>
-      <c r="I37" s="11">
-        <v>2.5</v>
-      </c>
+      <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
@@ -3299,40 +3079,36 @@
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
-      <c r="AA37" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA37" s="2"/>
       <c r="AB37" s="12">
         <f t="shared" si="1"/>
-        <v>77.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H38" s="11"/>
-      <c r="I38" s="11">
-        <v>6.5</v>
-      </c>
+      <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -3350,35 +3126,33 @@
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
-      <c r="AA38" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA38" s="2"/>
       <c r="AB38" s="12">
         <f t="shared" si="1"/>
-        <v>266.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -3390,60 +3164,42 @@
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
-      <c r="R39" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="S39" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="T39" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="U39" s="11">
-        <v>200.0</v>
-      </c>
-      <c r="V39" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W39" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="X39" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y39" s="11">
-        <v>250.0</v>
-      </c>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
-      <c r="AA39" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA39" s="2"/>
       <c r="AB39" s="12">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -3455,65 +3211,45 @@
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
-      <c r="R40" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="S40" s="11">
-        <v>100.0</v>
-      </c>
-      <c r="T40" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="U40" s="11">
-        <v>150.0</v>
-      </c>
-      <c r="V40" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W40" s="11">
-        <v>225.0</v>
-      </c>
-      <c r="X40" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y40" s="11">
-        <v>225.0</v>
-      </c>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
-      <c r="AA40" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA40" s="2"/>
       <c r="AB40" s="12">
         <f t="shared" si="1"/>
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H41" s="11"/>
-      <c r="I41" s="11">
-        <v>7.0</v>
-      </c>
+      <c r="I41" s="11"/>
       <c r="J41" s="11"/>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
@@ -3531,40 +3267,36 @@
       <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
       <c r="Z41" s="11"/>
-      <c r="AA41" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA41" s="2"/>
       <c r="AB41" s="12">
         <f t="shared" si="1"/>
-        <v>301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H42" s="11"/>
-      <c r="I42" s="11">
-        <v>3.0</v>
-      </c>
+      <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
@@ -3582,35 +3314,33 @@
       <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="11"/>
-      <c r="AA42" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA42" s="2"/>
       <c r="AB42" s="12">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -3622,63 +3352,45 @@
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
-      <c r="R43" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="S43" s="11">
-        <v>552.0</v>
-      </c>
-      <c r="T43" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="U43" s="11">
-        <v>552.0</v>
-      </c>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
-      <c r="X43" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="Y43" s="11">
-        <v>552.0</v>
-      </c>
-      <c r="Z43" s="11">
-        <v>144.0</v>
-      </c>
-      <c r="AA43" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="2"/>
       <c r="AB43" s="12">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H44" s="11"/>
-      <c r="I44" s="11">
-        <v>5.0</v>
-      </c>
+      <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
@@ -3696,40 +3408,36 @@
       <c r="X44" s="11"/>
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
-      <c r="AA44" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA44" s="2"/>
       <c r="AB44" s="12">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H45" s="11"/>
-      <c r="I45" s="11">
-        <v>1.5</v>
-      </c>
+      <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
       <c r="L45" s="11"/>
@@ -3747,35 +3455,33 @@
       <c r="X45" s="11"/>
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
-      <c r="AA45" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA45" s="2"/>
       <c r="AB45" s="12">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -3787,62 +3493,42 @@
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
-      <c r="R46" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="S46" s="11">
-        <v>200.0</v>
-      </c>
-      <c r="T46" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="U46" s="11">
-        <v>100.0</v>
-      </c>
-      <c r="V46" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W46" s="11">
-        <v>200.0</v>
-      </c>
-      <c r="X46" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y46" s="11">
-        <v>200.0</v>
-      </c>
-      <c r="Z46" s="11">
-        <v>144.0</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="2"/>
       <c r="AB46" s="12">
         <f t="shared" si="1"/>
-        <v>844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -3854,65 +3540,45 @@
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
-      <c r="R47" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="S47" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="T47" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="U47" s="11">
-        <v>200.0</v>
-      </c>
-      <c r="V47" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W47" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="X47" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y47" s="11">
-        <v>250.0</v>
-      </c>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
-      <c r="AA47" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA47" s="2"/>
       <c r="AB47" s="12">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H48" s="11"/>
-      <c r="I48" s="11">
-        <v>5.0</v>
-      </c>
+      <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
@@ -3930,35 +3596,33 @@
       <c r="X48" s="11"/>
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
-      <c r="AA48" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA48" s="2"/>
       <c r="AB48" s="12">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
@@ -3970,65 +3634,45 @@
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
-      <c r="R49" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="S49" s="11">
-        <v>300.0</v>
-      </c>
-      <c r="T49" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="U49" s="11">
-        <v>350.0</v>
-      </c>
-      <c r="V49" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="W49" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="X49" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y49" s="11">
-        <v>350.0</v>
-      </c>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
-      <c r="AA49" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA49" s="2"/>
       <c r="AB49" s="12">
         <f t="shared" si="1"/>
-        <v>1250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H50" s="11"/>
-      <c r="I50" s="11">
-        <v>2.0</v>
-      </c>
+      <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
@@ -4046,40 +3690,36 @@
       <c r="X50" s="11"/>
       <c r="Y50" s="11"/>
       <c r="Z50" s="11"/>
-      <c r="AA50" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA50" s="2"/>
       <c r="AB50" s="12">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H51" s="11"/>
-      <c r="I51" s="11">
-        <v>2.0</v>
-      </c>
+      <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
@@ -4097,35 +3737,33 @@
       <c r="X51" s="11"/>
       <c r="Y51" s="11"/>
       <c r="Z51" s="11"/>
-      <c r="AA51" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA51" s="2"/>
       <c r="AB51" s="12">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
@@ -4137,60 +3775,42 @@
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
-      <c r="R52" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="S52" s="11">
-        <v>350.0</v>
-      </c>
-      <c r="T52" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="U52" s="11">
-        <v>663.0</v>
-      </c>
-      <c r="V52" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="W52" s="11">
-        <v>663.0</v>
-      </c>
-      <c r="X52" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y52" s="11">
-        <v>200.0</v>
-      </c>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
-      <c r="AA52" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA52" s="2"/>
       <c r="AB52" s="12">
         <f t="shared" si="1"/>
-        <v>1876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
@@ -4204,46 +3824,40 @@
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
-      <c r="T53" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="U53" s="11">
-        <v>320.0</v>
-      </c>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
       <c r="V53" s="11"/>
       <c r="W53" s="11"/>
       <c r="X53" s="11"/>
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
-      <c r="AA53" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA53" s="2"/>
       <c r="AB53" s="12">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -4255,60 +3869,42 @@
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
-      <c r="R54" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="S54" s="11">
-        <v>120.0</v>
-      </c>
-      <c r="T54" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="U54" s="11">
-        <v>120.0</v>
-      </c>
-      <c r="V54" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="W54" s="11">
-        <v>140.0</v>
-      </c>
-      <c r="X54" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y54" s="11">
-        <v>250.0</v>
-      </c>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
-      <c r="AA54" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA54" s="2"/>
       <c r="AB54" s="12">
         <f t="shared" si="1"/>
-        <v>630</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -4324,49 +3920,41 @@
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
-      <c r="V55" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W55" s="11">
-        <v>320.0</v>
-      </c>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
       <c r="X55" s="11"/>
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
-      <c r="AA55" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA55" s="2"/>
       <c r="AB55" s="12">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H56" s="11"/>
-      <c r="I56" s="11">
-        <v>2.0</v>
-      </c>
+      <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
@@ -4384,35 +3972,33 @@
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
-      <c r="AA56" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA56" s="2"/>
       <c r="AB56" s="12">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -4433,9 +4019,7 @@
       <c r="X57" s="17"/>
       <c r="Y57" s="17"/>
       <c r="Z57" s="17"/>
-      <c r="AA57" s="15" t="s">
-        <v>260</v>
-      </c>
+      <c r="AA57" s="15"/>
       <c r="AB57" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4443,30 +4027,28 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H58" s="11"/>
-      <c r="I58" s="11">
-        <v>1.0</v>
-      </c>
+      <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
@@ -4484,35 +4066,33 @@
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
-      <c r="AA58" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA58" s="2"/>
       <c r="AB58" s="12">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
@@ -4524,60 +4104,42 @@
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
-      <c r="R59" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="S59" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="T59" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="U59" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="V59" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W59" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="X59" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y59" s="11">
-        <v>200.0</v>
-      </c>
+      <c r="R59" s="11"/>
+      <c r="S59" s="11"/>
+      <c r="T59" s="11"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
+      <c r="X59" s="11"/>
+      <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
-      <c r="AA59" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA59" s="2"/>
       <c r="AB59" s="12">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
@@ -4593,50 +4155,38 @@
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
       <c r="U60" s="11"/>
-      <c r="V60" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W60" s="11">
-        <v>350.0</v>
-      </c>
-      <c r="X60" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y60" s="11">
-        <v>350.0</v>
-      </c>
-      <c r="Z60" s="11">
-        <v>144.0</v>
-      </c>
-      <c r="AA60" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
+      <c r="X60" s="11"/>
+      <c r="Y60" s="11"/>
+      <c r="Z60" s="11"/>
+      <c r="AA60" s="2"/>
       <c r="AB60" s="12">
         <f t="shared" si="1"/>
-        <v>844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
@@ -4652,50 +4202,38 @@
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
       <c r="U61" s="11"/>
-      <c r="V61" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W61" s="11">
-        <v>350.0</v>
-      </c>
-      <c r="X61" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y61" s="11">
-        <v>350.0</v>
-      </c>
-      <c r="Z61" s="11">
-        <v>144.0</v>
-      </c>
-      <c r="AA61" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="V61" s="11"/>
+      <c r="W61" s="11"/>
+      <c r="X61" s="11"/>
+      <c r="Y61" s="11"/>
+      <c r="Z61" s="11"/>
+      <c r="AA61" s="2"/>
       <c r="AB61" s="12">
         <f t="shared" si="1"/>
-        <v>844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
@@ -4707,56 +4245,42 @@
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
-      <c r="R62" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="S62" s="11">
-        <v>350.0</v>
-      </c>
-      <c r="T62" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="U62" s="11">
-        <v>350.0</v>
-      </c>
-      <c r="V62" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W62" s="11">
-        <v>350.0</v>
-      </c>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
       <c r="X62" s="11"/>
       <c r="Y62" s="11"/>
       <c r="Z62" s="11"/>
-      <c r="AA62" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA62" s="2"/>
       <c r="AB62" s="12">
         <f t="shared" si="1"/>
-        <v>1050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -4768,60 +4292,42 @@
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
-      <c r="R63" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="S63" s="11">
-        <v>300.0</v>
-      </c>
-      <c r="T63" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="U63" s="11">
-        <v>300.0</v>
-      </c>
-      <c r="V63" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W63" s="11">
-        <v>300.0</v>
-      </c>
-      <c r="X63" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y63" s="11">
-        <v>250.0</v>
-      </c>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
+      <c r="X63" s="11"/>
+      <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
-      <c r="AA63" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA63" s="2"/>
       <c r="AB63" s="12">
         <f t="shared" si="1"/>
-        <v>1150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -4837,55 +4343,41 @@
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
       <c r="U64" s="11"/>
-      <c r="V64" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W64" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="X64" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y64" s="11">
-        <v>250.0</v>
-      </c>
-      <c r="Z64" s="11">
-        <v>144.0</v>
-      </c>
-      <c r="AA64" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
+      <c r="X64" s="11"/>
+      <c r="Y64" s="11"/>
+      <c r="Z64" s="11"/>
+      <c r="AA64" s="2"/>
       <c r="AB64" s="12">
         <f t="shared" si="1"/>
-        <v>644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H65" s="11"/>
-      <c r="I65" s="11">
-        <v>3.0</v>
-      </c>
+      <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
       <c r="L65" s="11"/>
@@ -4903,35 +4395,33 @@
       <c r="X65" s="11"/>
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
-      <c r="AA65" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA65" s="2"/>
       <c r="AB65" s="12">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -4947,50 +4437,38 @@
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
       <c r="U66" s="11"/>
-      <c r="V66" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W66" s="11">
-        <v>200.0</v>
-      </c>
-      <c r="X66" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y66" s="11">
-        <v>200.0</v>
-      </c>
-      <c r="Z66" s="11">
-        <v>144.0</v>
-      </c>
-      <c r="AA66" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
+      <c r="X66" s="11"/>
+      <c r="Y66" s="11"/>
+      <c r="Z66" s="11"/>
+      <c r="AA66" s="2"/>
       <c r="AB66" s="12">
         <f t="shared" si="1"/>
-        <v>544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
@@ -5002,50 +4480,36 @@
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
-      <c r="R67" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="S67" s="11">
-        <v>350.0</v>
-      </c>
-      <c r="T67" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="U67" s="11">
-        <v>350.0</v>
-      </c>
-      <c r="V67" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W67" s="11">
-        <v>350.0</v>
-      </c>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="11"/>
       <c r="X67" s="11"/>
       <c r="Y67" s="11"/>
       <c r="Z67" s="11"/>
-      <c r="AA67" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA67" s="2"/>
       <c r="AB67" s="12">
         <f t="shared" si="1"/>
-        <v>1050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H68" s="11"/>
       <c r="I68" s="11"/>
@@ -5061,40 +4525,32 @@
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
       <c r="U68" s="11"/>
-      <c r="V68" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W68" s="11">
-        <v>360.0</v>
-      </c>
-      <c r="X68" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y68" s="11">
-        <v>360.0</v>
-      </c>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
       <c r="Z68" s="11"/>
       <c r="AA68" s="2"/>
       <c r="AB68" s="12">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -5110,40 +4566,32 @@
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
       <c r="U69" s="11"/>
-      <c r="V69" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W69" s="11">
-        <v>810.0</v>
-      </c>
-      <c r="X69" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y69" s="11">
-        <v>810.0</v>
-      </c>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
+      <c r="X69" s="11"/>
+      <c r="Y69" s="11"/>
       <c r="Z69" s="11"/>
       <c r="AA69" s="2"/>
       <c r="AB69" s="12">
         <f t="shared" si="1"/>
-        <v>1620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
@@ -5159,42 +4607,34 @@
       <c r="S70" s="11"/>
       <c r="T70" s="11"/>
       <c r="U70" s="11"/>
-      <c r="V70" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W70" s="11">
-        <v>360.0</v>
-      </c>
-      <c r="X70" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y70" s="11">
-        <v>360.0</v>
-      </c>
+      <c r="V70" s="11"/>
+      <c r="W70" s="11"/>
+      <c r="X70" s="11"/>
+      <c r="Y70" s="11"/>
       <c r="Z70" s="11"/>
       <c r="AA70" s="2"/>
       <c r="AB70" s="12">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F71" s="6">
         <v>32.0</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
@@ -5225,17 +4665,17 @@
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
@@ -5251,42 +4691,34 @@
       <c r="S72" s="11"/>
       <c r="T72" s="11"/>
       <c r="U72" s="11"/>
-      <c r="V72" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W72" s="11">
-        <v>360.0</v>
-      </c>
-      <c r="X72" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y72" s="11">
-        <v>360.0</v>
-      </c>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
+      <c r="X72" s="11"/>
+      <c r="Y72" s="11"/>
       <c r="Z72" s="11"/>
       <c r="AA72" s="2"/>
       <c r="AB72" s="12">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F73" s="6">
         <v>36.0</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
@@ -5300,40 +4732,34 @@
       <c r="Q73" s="11"/>
       <c r="R73" s="11"/>
       <c r="S73" s="11"/>
-      <c r="T73" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="U73" s="11">
-        <v>100.0</v>
-      </c>
+      <c r="T73" s="11"/>
+      <c r="U73" s="11"/>
       <c r="V73" s="11"/>
       <c r="W73" s="11"/>
       <c r="X73" s="11"/>
       <c r="Y73" s="11"/>
-      <c r="Z73" s="11">
-        <v>106.0</v>
-      </c>
+      <c r="Z73" s="11"/>
       <c r="AA73" s="2"/>
       <c r="AB73" s="12">
         <f t="shared" si="1"/>
-        <v>206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
@@ -5349,40 +4775,32 @@
       <c r="S74" s="11"/>
       <c r="T74" s="11"/>
       <c r="U74" s="11"/>
-      <c r="V74" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W74" s="11">
-        <v>360.0</v>
-      </c>
-      <c r="X74" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y74" s="11">
-        <v>360.0</v>
-      </c>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
       <c r="Z74" s="11"/>
       <c r="AA74" s="2"/>
       <c r="AB74" s="12">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
@@ -5394,58 +4812,42 @@
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
-      <c r="R75" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="S75" s="11">
-        <v>150.0</v>
-      </c>
-      <c r="T75" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="U75" s="11">
-        <v>160.0</v>
-      </c>
-      <c r="V75" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="W75" s="11">
-        <v>160.0</v>
-      </c>
-      <c r="X75" s="11">
-        <v>8.0</v>
-      </c>
-      <c r="Y75" s="11">
-        <v>150.0</v>
-      </c>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="11"/>
       <c r="Z75" s="11"/>
       <c r="AA75" s="2"/>
       <c r="AB75" s="12">
         <f t="shared" si="1"/>
-        <v>620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
@@ -5466,9 +4868,7 @@
       <c r="X76" s="11"/>
       <c r="Y76" s="11"/>
       <c r="Z76" s="11"/>
-      <c r="AA76" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA76" s="2"/>
       <c r="AB76" s="12">
         <f t="shared" ref="AB76:AB83" si="2">(F76/40*H76)+(F76/40*K76)+(F76/40*L76)+N76+O76</f>
         <v>0</v>
@@ -5476,25 +4876,25 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
@@ -5503,9 +4903,7 @@
       <c r="L77" s="11"/>
       <c r="M77" s="11"/>
       <c r="N77" s="11"/>
-      <c r="O77" s="11">
-        <v>3500.0</v>
-      </c>
+      <c r="O77" s="11"/>
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
@@ -5517,35 +4915,33 @@
       <c r="X77" s="11"/>
       <c r="Y77" s="11"/>
       <c r="Z77" s="11"/>
-      <c r="AA77" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA77" s="2"/>
       <c r="AB77" s="12">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
@@ -5566,9 +4962,7 @@
       <c r="X78" s="11"/>
       <c r="Y78" s="11"/>
       <c r="Z78" s="11"/>
-      <c r="AA78" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA78" s="2"/>
       <c r="AB78" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5576,25 +4970,25 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -5615,9 +5009,7 @@
       <c r="X79" s="11"/>
       <c r="Y79" s="11"/>
       <c r="Z79" s="11"/>
-      <c r="AA79" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA79" s="2"/>
       <c r="AB79" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5625,25 +5017,25 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
@@ -5664,9 +5056,7 @@
       <c r="X80" s="11"/>
       <c r="Y80" s="11"/>
       <c r="Z80" s="11"/>
-      <c r="AA80" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA80" s="2"/>
       <c r="AB80" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5674,25 +5064,25 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
@@ -5701,9 +5091,7 @@
       <c r="L81" s="11"/>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
-      <c r="O81" s="11">
-        <v>2500.0</v>
-      </c>
+      <c r="O81" s="11"/>
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
       <c r="R81" s="11"/>
@@ -5715,35 +5103,33 @@
       <c r="X81" s="11"/>
       <c r="Y81" s="11"/>
       <c r="Z81" s="11"/>
-      <c r="AA81" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA81" s="2"/>
       <c r="AB81" s="12">
         <f t="shared" si="2"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -5764,9 +5150,7 @@
       <c r="X82" s="11"/>
       <c r="Y82" s="11"/>
       <c r="Z82" s="11"/>
-      <c r="AA82" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA82" s="2"/>
       <c r="AB82" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5774,25 +5158,25 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="5" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
@@ -5813,9 +5197,7 @@
       <c r="X83" s="11"/>
       <c r="Y83" s="11"/>
       <c r="Z83" s="11"/>
-      <c r="AA83" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA83" s="2"/>
       <c r="AB83" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -5823,30 +5205,28 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H84" s="11"/>
-      <c r="I84" s="11">
-        <v>6.75</v>
-      </c>
+      <c r="I84" s="11"/>
       <c r="J84" s="11"/>
       <c r="K84" s="11"/>
       <c r="L84" s="11"/>
@@ -5864,40 +5244,36 @@
       <c r="X84" s="11"/>
       <c r="Y84" s="11"/>
       <c r="Z84" s="11"/>
-      <c r="AA84" s="13" t="s">
-        <v>337</v>
-      </c>
+      <c r="AA84" s="13"/>
       <c r="AB84" s="12">
-        <f t="shared" ref="AB84:AB89" si="3">(F84*H84)+(F84*I84)+(F84*J84)+(F84*K84)+(F84*L84)+Q84+S84+U84+W84+Y84+Z84</f>
-        <v>216</v>
+        <f t="shared" ref="AB84:AB88" si="3">(F84*H84)+(F84*I84)+(F84*J84)+(F84*K84)+(F84*L84)+Q84+S84+U84+W84+Y84+Z84</f>
+        <v>0</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H85" s="11"/>
-      <c r="I85" s="11">
-        <v>7.75</v>
-      </c>
+      <c r="I85" s="11"/>
       <c r="J85" s="11"/>
       <c r="K85" s="11"/>
       <c r="L85" s="11"/>
@@ -5915,40 +5291,36 @@
       <c r="X85" s="11"/>
       <c r="Y85" s="11"/>
       <c r="Z85" s="11"/>
-      <c r="AA85" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA85" s="2"/>
       <c r="AB85" s="12">
         <f t="shared" si="3"/>
-        <v>232.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H86" s="11"/>
-      <c r="I86" s="11">
-        <v>7.5</v>
-      </c>
+      <c r="I86" s="11"/>
       <c r="J86" s="11"/>
       <c r="K86" s="11"/>
       <c r="L86" s="11"/>
@@ -5966,40 +5338,36 @@
       <c r="X86" s="11"/>
       <c r="Y86" s="11"/>
       <c r="Z86" s="11"/>
-      <c r="AA86" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="AA86" s="2"/>
       <c r="AB86" s="12">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H87" s="11"/>
-      <c r="I87" s="11">
-        <v>7.5</v>
-      </c>
+      <c r="I87" s="11"/>
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
       <c r="L87" s="11"/>
@@ -6017,128 +5385,47 @@
       <c r="X87" s="11"/>
       <c r="Y87" s="11"/>
       <c r="Z87" s="11"/>
-      <c r="AA87" s="13" t="s">
-        <v>347</v>
-      </c>
+      <c r="AA87" s="13"/>
       <c r="AB87" s="12">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="2" t="s">
-        <v>348</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="B88" s="5"/>
-      <c r="C88" s="4" t="s">
-        <v>84</v>
-      </c>
+      <c r="C88" s="2"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
       <c r="F88" s="6"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11">
-        <f t="shared" ref="I88:Z88" si="4">SUM(I9:I87)</f>
-        <v>98</v>
-      </c>
-      <c r="J88" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K88" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L88" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M88" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N88" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O88" s="6">
-        <f t="shared" si="4"/>
-        <v>6000</v>
-      </c>
-      <c r="P88" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q88" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R88" s="6">
-        <f t="shared" si="4"/>
-        <v>151</v>
-      </c>
-      <c r="S88" s="6">
-        <f t="shared" si="4"/>
-        <v>6522</v>
-      </c>
-      <c r="T88" s="6">
-        <f t="shared" si="4"/>
-        <v>139</v>
-      </c>
-      <c r="U88" s="6">
-        <f t="shared" si="4"/>
-        <v>5990</v>
-      </c>
-      <c r="V88" s="6">
-        <f t="shared" si="4"/>
-        <v>208.5</v>
-      </c>
-      <c r="W88" s="6">
-        <f t="shared" si="4"/>
-        <v>8683</v>
-      </c>
-      <c r="X88" s="6">
-        <f t="shared" si="4"/>
-        <v>198.5</v>
-      </c>
-      <c r="Y88" s="6">
-        <f t="shared" si="4"/>
-        <v>7827</v>
-      </c>
-      <c r="Z88" s="6">
-        <f t="shared" si="4"/>
-        <v>1330</v>
-      </c>
       <c r="AA88" s="2"/>
       <c r="AB88" s="12">
         <f t="shared" si="3"/>
-        <v>30352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="2"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="5"/>
+      <c r="A89" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="D89" s="19" t="s">
+        <v>32</v>
+      </c>
       <c r="E89" s="5"/>
       <c r="F89" s="6"/>
       <c r="G89" s="2"/>
       <c r="AA89" s="2"/>
-      <c r="AB89" s="12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="AB89" s="3"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>349</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="B90" s="2"/>
       <c r="D90" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="6"/>
@@ -6148,11 +5435,11 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B91" s="2"/>
       <c r="D91" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="6"/>
@@ -6161,13 +5448,10 @@
       <c r="AB91" s="3"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="D92" s="19" t="s">
-        <v>35</v>
-      </c>
+      <c r="A92" s="2"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="5"/>
       <c r="E92" s="5"/>
       <c r="F92" s="6"/>
       <c r="G92" s="2"/>
@@ -6175,13 +5459,10 @@
       <c r="AB92" s="3"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="D93" s="19" t="s">
-        <v>35</v>
-      </c>
+      <c r="A93" s="2"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="6"/>
       <c r="G93" s="2"/>
@@ -16143,34 +15424,11 @@
       <c r="AA998" s="2"/>
       <c r="AB998" s="3"/>
     </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="A999" s="2"/>
-      <c r="B999" s="5"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="5"/>
-      <c r="E999" s="5"/>
-      <c r="F999" s="6"/>
-      <c r="G999" s="2"/>
-      <c r="AA999" s="2"/>
-      <c r="AB999" s="3"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="5"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="5"/>
-      <c r="E1000" s="5"/>
-      <c r="F1000" s="6"/>
-      <c r="G1000" s="2"/>
-      <c r="AA1000" s="2"/>
-      <c r="AB1000" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
+    <mergeCell ref="B89:C89"/>
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Numeric Data Only - Hours input is restricted to Numeric Values between -9999.999 and 99999.999" sqref="H9:Z17 I18:Z18 H19:Z87">
